--- a/instar/Instar abundances females 1990-2022.xlsx
+++ b/instar/Instar abundances females 1990-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuretteTJ\Desktop\gulf-population-modelling\instar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C127A561-7460-4B81-86A9-C0BC663F5D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A020CE-599F-4458-B037-C55ADF31D4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="210" windowWidth="28125" windowHeight="14355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="210" windowWidth="28125" windowHeight="14355" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mu" sheetId="6" r:id="rId1"/>
@@ -960,33 +960,6 @@
     <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1047,6 +1020,33 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1103,6 +1103,2158 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Immature (VII) to Adolescent (VIII) moulting probability</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'molting prob Instar VII to VIII'!$A$6:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'molting prob Instar VII to VIII'!$B$6:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.16339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4560000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7370000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5270000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2281</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2087</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1629999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5380000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.2049999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1346</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1186</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1618</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1928</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1719</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1278</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.16689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.28089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.21479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.21029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.22370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.35730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E51-4D3D-BAAD-D491DD9635A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="263628608"/>
+        <c:axId val="263629856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="263628608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263629856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="263629856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263628608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Immature (VIII) to Adolescent (IX) moulting probability</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'molting prob Instar VII to IX'!$A$6:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'molting prob Instar VII to IX'!$B$6:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.54079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68320000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68810000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.68820000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.68600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79910000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.73350000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.69579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.82709999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.84060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.79790000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71540000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.80449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.70589999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EB0-4F0B-8D62-8D7F2CDCF679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="263628608"/>
+        <c:axId val="263629856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="263628608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263629856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="263629856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263628608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C184C8DC-C4BF-12FD-AC71-027FBE652CB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F267B074-7161-4293-BFBF-2F7BE980C2C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1432,7 +3584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -1442,30 +3594,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="37" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="41"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="58"/>
       <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
@@ -3324,30 +5476,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="37" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="41"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="58"/>
       <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
@@ -5605,42 +7757,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="37" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41"/>
-      <c r="N1" s="44" t="s">
+      <c r="K1" s="64"/>
+      <c r="L1" s="65"/>
+      <c r="N1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="37" t="s">
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="41"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="65"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -5717,25 +7869,25 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="46">
+      <c r="A3" s="37">
         <v>1983</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="40">
         <v>1984</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="40">
         <v>1985</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="40">
         <v>1986</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="40">
         <v>1987</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="41">
         <v>1988</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="46">
         <v>1987</v>
       </c>
       <c r="H3" s="7">
@@ -5744,40 +7896,40 @@
       <c r="I3" s="7">
         <v>1989</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="47">
         <v>1988</v>
       </c>
       <c r="K3" s="14">
         <v>1989</v>
       </c>
-      <c r="L3" s="57">
+      <c r="L3" s="48">
         <v>1990</v>
       </c>
-      <c r="N3" s="46">
+      <c r="N3" s="37">
         <f>A3-$A$3+1</f>
         <v>1</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="40">
         <f t="shared" ref="O3:Y18" si="0">B3-$A$3+1</f>
         <v>2</v>
       </c>
-      <c r="P3" s="49">
+      <c r="P3" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Q3" s="49">
+      <c r="Q3" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R3" s="49">
+      <c r="R3" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="S3" s="50">
+      <c r="S3" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T3" s="55">
+      <c r="T3" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5789,7 +7941,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W3" s="56">
+      <c r="W3" s="47">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -5797,3619 +7949,3619 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Y3" s="57">
+      <c r="Y3" s="48">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
+      <c r="A4" s="37">
         <v>1984</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="40">
         <v>1985</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="40">
         <v>1986</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="40">
         <v>1987</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="40">
         <v>1988</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="41">
         <v>1989</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="46">
         <v>1988</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="46">
         <v>1989</v>
       </c>
-      <c r="I4" s="58">
+      <c r="I4" s="49">
         <v>1990</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="47">
         <v>1989</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K4" s="50">
         <v>1990</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="48">
         <v>1991</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4" s="37">
         <f t="shared" ref="N4:N45" si="1">A4-$A$3+1</f>
         <v>2</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P4" s="49">
+      <c r="P4" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Q4" s="49">
+      <c r="Q4" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="R4" s="49">
+      <c r="R4" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S4" s="50">
+      <c r="S4" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T4" s="55">
+      <c r="T4" s="46">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="U4" s="55">
+      <c r="U4" s="46">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="V4" s="58">
+      <c r="V4" s="49">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="W4" s="56">
+      <c r="W4" s="47">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="X4" s="59">
+      <c r="X4" s="50">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="Y4" s="57">
+      <c r="Y4" s="48">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
+      <c r="A5" s="37">
         <v>1985</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="40">
         <v>1986</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="40">
         <v>1987</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="40">
         <v>1988</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="40">
         <v>1989</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="42">
         <v>1990</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="46">
         <v>1989</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="49">
         <v>1990</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="49">
         <v>1991</v>
       </c>
-      <c r="J5" s="60">
+      <c r="J5" s="51">
         <v>1990</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="50">
         <v>1991</v>
       </c>
-      <c r="L5" s="57">
+      <c r="L5" s="48">
         <v>1992</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="37">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="O5" s="49">
+      <c r="O5" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P5" s="49">
+      <c r="P5" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q5" s="49">
+      <c r="Q5" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R5" s="49">
+      <c r="R5" s="40">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="T5" s="55">
+      <c r="T5" s="46">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="U5" s="58">
+      <c r="U5" s="49">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="V5" s="58">
+      <c r="V5" s="49">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W5" s="60">
+      <c r="W5" s="51">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="X5" s="59">
+      <c r="X5" s="50">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="Y5" s="57">
+      <c r="Y5" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="46">
+      <c r="A6" s="37">
         <v>1986</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="40">
         <v>1987</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="40">
         <v>1988</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="40">
         <v>1989</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="43">
         <v>1990</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="44">
         <v>1991</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="49">
         <v>1990</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6" s="49">
         <v>1991</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="49">
         <v>1992</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="51">
         <v>1991</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="50">
         <v>1992</v>
       </c>
-      <c r="L6" s="57">
+      <c r="L6" s="48">
         <v>1993</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="37">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P6" s="49">
+      <c r="P6" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Q6" s="49">
+      <c r="Q6" s="40">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="R6" s="52">
+      <c r="R6" s="43">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="S6" s="53">
+      <c r="S6" s="44">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="T6" s="58">
+      <c r="T6" s="49">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="U6" s="58">
+      <c r="U6" s="49">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="V6" s="58">
+      <c r="V6" s="49">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="W6" s="60">
+      <c r="W6" s="51">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="X6" s="59">
+      <c r="X6" s="50">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Y6" s="57">
+      <c r="Y6" s="48">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="46">
+      <c r="A7" s="37">
         <v>1987</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="40">
         <v>1988</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="40">
         <v>1989</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="43">
         <v>1990</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="45">
         <v>1991</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="44">
         <v>1992</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="49">
         <v>1991</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="49">
         <v>1992</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="49">
         <v>1993</v>
       </c>
-      <c r="J7" s="60">
+      <c r="J7" s="51">
         <v>1992</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="50">
         <v>1993</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="48">
         <v>1994</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="37">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O7" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P7" s="49">
+      <c r="P7" s="40">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q7" s="52">
+      <c r="Q7" s="43">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7" s="45">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="S7" s="53">
+      <c r="S7" s="44">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="T7" s="58">
+      <c r="T7" s="49">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="U7" s="58">
+      <c r="U7" s="49">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="V7" s="58">
+      <c r="V7" s="49">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="W7" s="60">
+      <c r="W7" s="51">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="X7" s="59">
+      <c r="X7" s="50">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="Y7" s="57">
+      <c r="Y7" s="48">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="46">
+      <c r="A8" s="37">
         <v>1988</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="40">
         <v>1989</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="43">
         <v>1990</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="45">
         <v>1991</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="45">
         <v>1992</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="44">
         <v>1993</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="49">
         <v>1992</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="49">
         <v>1993</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="49">
         <v>1994</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="51">
         <v>1993</v>
       </c>
-      <c r="K8" s="59">
+      <c r="K8" s="50">
         <v>1994</v>
       </c>
-      <c r="L8" s="57">
+      <c r="L8" s="48">
         <v>1995</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="37">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="O8" s="49">
+      <c r="O8" s="40">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P8" s="52">
+      <c r="P8" s="43">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="Q8" s="54">
+      <c r="Q8" s="45">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="R8" s="54">
+      <c r="R8" s="45">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="S8" s="53">
+      <c r="S8" s="44">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="T8" s="58">
+      <c r="T8" s="49">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="U8" s="58">
+      <c r="U8" s="49">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="V8" s="58">
+      <c r="V8" s="49">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="W8" s="60">
+      <c r="W8" s="51">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="X8" s="59">
+      <c r="X8" s="50">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Y8" s="57">
+      <c r="Y8" s="48">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="46">
+      <c r="A9" s="37">
         <v>1989</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="43">
         <v>1990</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="45">
         <v>1991</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="45">
         <v>1992</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="45">
         <v>1993</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="44">
         <v>1994</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="49">
         <v>1993</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="49">
         <v>1994</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="49">
         <v>1995</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="51">
         <v>1994</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="50">
         <v>1995</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="52">
         <v>1996</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="37">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="O9" s="52">
+      <c r="O9" s="43">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="P9" s="54">
+      <c r="P9" s="45">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="Q9" s="54">
+      <c r="Q9" s="45">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="R9" s="54">
+      <c r="R9" s="45">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="S9" s="53">
+      <c r="S9" s="44">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="T9" s="58">
+      <c r="T9" s="49">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="U9" s="58">
+      <c r="U9" s="49">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="V9" s="58">
+      <c r="V9" s="49">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="W9" s="60">
+      <c r="W9" s="51">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="X9" s="59">
+      <c r="X9" s="50">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="Y9" s="61">
+      <c r="Y9" s="52">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
+      <c r="A10" s="38">
         <v>1990</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="45">
         <v>1991</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="45">
         <v>1992</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="45">
         <v>1993</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="45">
         <v>1994</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="44">
         <v>1995</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="49">
         <v>1994</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="49">
         <v>1995</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="46">
         <v>1996</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="51">
         <v>1995</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="53">
         <v>1996</v>
       </c>
-      <c r="L10" s="57">
+      <c r="L10" s="48">
         <v>1997</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="38">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="O10" s="54">
+      <c r="O10" s="45">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P10" s="54">
+      <c r="P10" s="45">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q10" s="54">
+      <c r="Q10" s="45">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="R10" s="54">
+      <c r="R10" s="45">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="S10" s="53">
+      <c r="S10" s="44">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="T10" s="58">
+      <c r="T10" s="49">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="U10" s="58">
+      <c r="U10" s="49">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="V10" s="55">
+      <c r="V10" s="46">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="W10" s="60">
+      <c r="W10" s="51">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="X10" s="62">
+      <c r="X10" s="53">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Y10" s="57">
+      <c r="Y10" s="48">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="A11" s="39">
         <v>1991</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="45">
         <v>1992</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="45">
         <v>1993</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="45">
         <v>1994</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="45">
         <v>1995</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="41">
         <v>1996</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="49">
         <v>1995</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="46">
         <v>1996</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="49">
         <v>1997</v>
       </c>
-      <c r="J11" s="56">
+      <c r="J11" s="47">
         <v>1996</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K11" s="50">
         <v>1997</v>
       </c>
-      <c r="L11" s="57">
+      <c r="L11" s="48">
         <v>1998</v>
       </c>
-      <c r="N11" s="48">
+      <c r="N11" s="39">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="O11" s="54">
+      <c r="O11" s="45">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P11" s="54">
+      <c r="P11" s="45">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="Q11" s="54">
+      <c r="Q11" s="45">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="R11" s="54">
+      <c r="R11" s="45">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="S11" s="50">
+      <c r="S11" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="T11" s="58">
+      <c r="T11" s="49">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="U11" s="55">
+      <c r="U11" s="46">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="V11" s="58">
+      <c r="V11" s="49">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="W11" s="56">
+      <c r="W11" s="47">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="X11" s="59">
+      <c r="X11" s="50">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Y11" s="57">
+      <c r="Y11" s="48">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="39">
         <v>1992</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="45">
         <v>1993</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="45">
         <v>1994</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="45">
         <v>1995</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="40">
         <v>1996</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="44">
         <v>1997</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="46">
         <v>1996</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="49">
         <v>1997</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="49">
         <v>1998</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="51">
         <v>1997</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="50">
         <v>1998</v>
       </c>
-      <c r="L12" s="57">
+      <c r="L12" s="48">
         <v>1999</v>
       </c>
-      <c r="N12" s="48">
+      <c r="N12" s="39">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="O12" s="54">
+      <c r="O12" s="45">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P12" s="54">
+      <c r="P12" s="45">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Q12" s="54">
+      <c r="Q12" s="45">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="R12" s="49">
+      <c r="R12" s="40">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="S12" s="53">
+      <c r="S12" s="44">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="T12" s="55">
+      <c r="T12" s="46">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="U12" s="58">
+      <c r="U12" s="49">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="V12" s="58">
+      <c r="V12" s="49">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="W12" s="60">
+      <c r="W12" s="51">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="X12" s="59">
+      <c r="X12" s="50">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Y12" s="57">
+      <c r="Y12" s="48">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="A13" s="39">
         <v>1993</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="45">
         <v>1994</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="45">
         <v>1995</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="40">
         <v>1996</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="45">
         <v>1997</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="44">
         <v>1998</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="49">
         <v>1997</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="49">
         <v>1998</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="49">
         <v>1999</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="51">
         <v>1998</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="50">
         <v>1999</v>
       </c>
-      <c r="L13" s="57">
+      <c r="L13" s="48">
         <v>2000</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="39">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="O13" s="54">
+      <c r="O13" s="45">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P13" s="54">
+      <c r="P13" s="45">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="Q13" s="49">
+      <c r="Q13" s="40">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="R13" s="54">
+      <c r="R13" s="45">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="S13" s="53">
+      <c r="S13" s="44">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="T13" s="58">
+      <c r="T13" s="49">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U13" s="58">
+      <c r="U13" s="49">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="V13" s="58">
+      <c r="V13" s="49">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="W13" s="60">
+      <c r="W13" s="51">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="X13" s="59">
+      <c r="X13" s="50">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="Y13" s="57">
+      <c r="Y13" s="48">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="48">
+      <c r="A14" s="39">
         <v>1994</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="45">
         <v>1995</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="40">
         <v>1996</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="45">
         <v>1997</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="45">
         <v>1998</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="44">
         <v>1999</v>
       </c>
-      <c r="G14" s="58">
+      <c r="G14" s="49">
         <v>1998</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="49">
         <v>1999</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="49">
         <v>2000</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="51">
         <v>1999</v>
       </c>
-      <c r="K14" s="59">
+      <c r="K14" s="50">
         <v>2000</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="48">
         <v>2001</v>
       </c>
-      <c r="N14" s="48">
+      <c r="N14" s="39">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="O14" s="54">
+      <c r="O14" s="45">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P14" s="49">
+      <c r="P14" s="40">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q14" s="54">
+      <c r="Q14" s="45">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R14" s="54">
+      <c r="R14" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="S14" s="53">
+      <c r="S14" s="44">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="T14" s="58">
+      <c r="T14" s="49">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="U14" s="58">
+      <c r="U14" s="49">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="V14" s="58">
+      <c r="V14" s="49">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="W14" s="60">
+      <c r="W14" s="51">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="X14" s="59">
+      <c r="X14" s="50">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="Y14" s="57">
+      <c r="Y14" s="48">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="48">
+      <c r="A15" s="39">
         <v>1995</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="40">
         <v>1996</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="45">
         <v>1997</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="45">
         <v>1998</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="45">
         <v>1999</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="44">
         <v>2000</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="49">
         <v>1999</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="49">
         <v>2000</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="49">
         <v>2001</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="51">
         <v>2000</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="50">
         <v>2001</v>
       </c>
-      <c r="L15" s="57">
+      <c r="L15" s="48">
         <v>2002</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="39">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="O15" s="49">
+      <c r="O15" s="40">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P15" s="54">
+      <c r="P15" s="45">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q15" s="54">
+      <c r="Q15" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="R15" s="54">
+      <c r="R15" s="45">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="S15" s="53">
+      <c r="S15" s="44">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T15" s="58">
+      <c r="T15" s="49">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="U15" s="58">
+      <c r="U15" s="49">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="V15" s="58">
+      <c r="V15" s="49">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="W15" s="60">
+      <c r="W15" s="51">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="X15" s="59">
+      <c r="X15" s="50">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="Y15" s="57">
+      <c r="Y15" s="48">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="46">
+      <c r="A16" s="37">
         <v>1996</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="45">
         <v>1997</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="45">
         <v>1998</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="45">
         <v>1999</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="45">
         <v>2000</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="44">
         <v>2001</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="49">
         <v>2000</v>
       </c>
-      <c r="H16" s="58">
+      <c r="H16" s="49">
         <v>2001</v>
       </c>
-      <c r="I16" s="58">
+      <c r="I16" s="49">
         <v>2002</v>
       </c>
-      <c r="J16" s="60">
+      <c r="J16" s="51">
         <v>2001</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="50">
         <v>2002</v>
       </c>
-      <c r="L16" s="57">
+      <c r="L16" s="48">
         <v>2003</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="37">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="O16" s="54">
+      <c r="O16" s="45">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P16" s="54">
+      <c r="P16" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Q16" s="54">
+      <c r="Q16" s="45">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="R16" s="54">
+      <c r="R16" s="45">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="S16" s="53">
+      <c r="S16" s="44">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="T16" s="58">
+      <c r="T16" s="49">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="U16" s="58">
+      <c r="U16" s="49">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="V16" s="58">
+      <c r="V16" s="49">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="W16" s="60">
+      <c r="W16" s="51">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X16" s="59">
+      <c r="X16" s="50">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Y16" s="57">
+      <c r="Y16" s="48">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="48">
+      <c r="A17" s="39">
         <v>1997</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="45">
         <v>1998</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="45">
         <v>1999</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="45">
         <v>2000</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="45">
         <v>2001</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="44">
         <v>2002</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="49">
         <v>2001</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17" s="49">
         <v>2002</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="49">
         <v>2003</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="51">
         <v>2002</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="50">
         <v>2003</v>
       </c>
-      <c r="L17" s="57">
+      <c r="L17" s="48">
         <v>2004</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="39">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="O17" s="54">
+      <c r="O17" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="P17" s="54">
+      <c r="P17" s="45">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="Q17" s="54">
+      <c r="Q17" s="45">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="R17" s="54">
+      <c r="R17" s="45">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="S17" s="53">
+      <c r="S17" s="44">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="T17" s="58">
+      <c r="T17" s="49">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="U17" s="58">
+      <c r="U17" s="49">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="V17" s="58">
+      <c r="V17" s="49">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="W17" s="60">
+      <c r="W17" s="51">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="X17" s="59">
+      <c r="X17" s="50">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Y17" s="57">
+      <c r="Y17" s="48">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
+      <c r="A18" s="39">
         <v>1998</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="45">
         <v>1999</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="45">
         <v>2000</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="45">
         <v>2001</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="45">
         <v>2002</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="44">
         <v>2003</v>
       </c>
-      <c r="G18" s="58">
+      <c r="G18" s="49">
         <v>2002</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H18" s="49">
         <v>2003</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="49">
         <v>2004</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="51">
         <v>2003</v>
       </c>
-      <c r="K18" s="59">
+      <c r="K18" s="50">
         <v>2004</v>
       </c>
-      <c r="L18" s="57">
+      <c r="L18" s="48">
         <v>2005</v>
       </c>
-      <c r="N18" s="48">
+      <c r="N18" s="39">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="O18" s="54">
+      <c r="O18" s="45">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="P18" s="54">
+      <c r="P18" s="45">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="Q18" s="54">
+      <c r="Q18" s="45">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="R18" s="54">
+      <c r="R18" s="45">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="S18" s="53">
+      <c r="S18" s="44">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="T18" s="58">
+      <c r="T18" s="49">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="U18" s="58">
+      <c r="U18" s="49">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="V18" s="58">
+      <c r="V18" s="49">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="W18" s="60">
+      <c r="W18" s="51">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="X18" s="59">
+      <c r="X18" s="50">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Y18" s="57">
+      <c r="Y18" s="48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
+      <c r="A19" s="39">
         <v>1999</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="45">
         <v>2000</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="45">
         <v>2001</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="45">
         <v>2002</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="45">
         <v>2003</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="44">
         <v>2004</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G19" s="49">
         <v>2003</v>
       </c>
-      <c r="H19" s="58">
+      <c r="H19" s="49">
         <v>2004</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="49">
         <v>2005</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="51">
         <v>2004</v>
       </c>
-      <c r="K19" s="59">
+      <c r="K19" s="50">
         <v>2005</v>
       </c>
-      <c r="L19" s="57">
+      <c r="L19" s="48">
         <v>2006</v>
       </c>
-      <c r="N19" s="48">
+      <c r="N19" s="39">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="O19" s="54">
+      <c r="O19" s="45">
         <f t="shared" ref="O19:O45" si="2">B19-$A$3+1</f>
         <v>18</v>
       </c>
-      <c r="P19" s="54">
+      <c r="P19" s="45">
         <f t="shared" ref="P19:P45" si="3">C19-$A$3+1</f>
         <v>19</v>
       </c>
-      <c r="Q19" s="54">
+      <c r="Q19" s="45">
         <f t="shared" ref="Q19:Q45" si="4">D19-$A$3+1</f>
         <v>20</v>
       </c>
-      <c r="R19" s="54">
+      <c r="R19" s="45">
         <f t="shared" ref="R19:R45" si="5">E19-$A$3+1</f>
         <v>21</v>
       </c>
-      <c r="S19" s="53">
+      <c r="S19" s="44">
         <f t="shared" ref="S19:S45" si="6">F19-$A$3+1</f>
         <v>22</v>
       </c>
-      <c r="T19" s="58">
+      <c r="T19" s="49">
         <f t="shared" ref="T19:T45" si="7">G19-$A$3+1</f>
         <v>21</v>
       </c>
-      <c r="U19" s="58">
+      <c r="U19" s="49">
         <f t="shared" ref="U19:U45" si="8">H19-$A$3+1</f>
         <v>22</v>
       </c>
-      <c r="V19" s="58">
+      <c r="V19" s="49">
         <f t="shared" ref="V19:V45" si="9">I19-$A$3+1</f>
         <v>23</v>
       </c>
-      <c r="W19" s="60">
+      <c r="W19" s="51">
         <f t="shared" ref="W19:W45" si="10">J19-$A$3+1</f>
         <v>22</v>
       </c>
-      <c r="X19" s="59">
+      <c r="X19" s="50">
         <f t="shared" ref="X19:Y45" si="11">K19-$A$3+1</f>
         <v>23</v>
       </c>
-      <c r="Y19" s="57">
+      <c r="Y19" s="48">
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="48">
+      <c r="A20" s="39">
         <v>2000</v>
       </c>
-      <c r="B20" s="54">
+      <c r="B20" s="45">
         <v>2001</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="45">
         <v>2002</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="45">
         <v>2003</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="45">
         <v>2004</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="44">
         <v>2005</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="49">
         <v>2004</v>
       </c>
-      <c r="H20" s="58">
+      <c r="H20" s="49">
         <v>2005</v>
       </c>
-      <c r="I20" s="58">
+      <c r="I20" s="49">
         <v>2006</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="51">
         <v>2005</v>
       </c>
-      <c r="K20" s="59">
+      <c r="K20" s="50">
         <v>2006</v>
       </c>
-      <c r="L20" s="57">
+      <c r="L20" s="48">
         <v>2007</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="39">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="O20" s="54">
+      <c r="O20" s="45">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="P20" s="54">
+      <c r="P20" s="45">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Q20" s="54">
+      <c r="Q20" s="45">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="R20" s="54">
+      <c r="R20" s="45">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="S20" s="53">
+      <c r="S20" s="44">
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="T20" s="58">
+      <c r="T20" s="49">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="U20" s="58">
+      <c r="U20" s="49">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="V20" s="58">
+      <c r="V20" s="49">
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="W20" s="60">
+      <c r="W20" s="51">
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
-      <c r="X20" s="59">
+      <c r="X20" s="50">
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="Y20" s="57">
+      <c r="Y20" s="48">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
+      <c r="A21" s="39">
         <v>2001</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21" s="45">
         <v>2002</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="45">
         <v>2003</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="45">
         <v>2004</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="45">
         <v>2005</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="44">
         <v>2006</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="49">
         <v>2005</v>
       </c>
-      <c r="H21" s="58">
+      <c r="H21" s="49">
         <v>2006</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="49">
         <v>2007</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="51">
         <v>2006</v>
       </c>
-      <c r="K21" s="59">
+      <c r="K21" s="50">
         <v>2007</v>
       </c>
-      <c r="L21" s="57">
+      <c r="L21" s="48">
         <v>2008</v>
       </c>
-      <c r="N21" s="48">
+      <c r="N21" s="39">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="O21" s="54">
+      <c r="O21" s="45">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="P21" s="54">
+      <c r="P21" s="45">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="Q21" s="54">
+      <c r="Q21" s="45">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="R21" s="54">
+      <c r="R21" s="45">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="S21" s="53">
+      <c r="S21" s="44">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="T21" s="58">
+      <c r="T21" s="49">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="U21" s="58">
+      <c r="U21" s="49">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="V21" s="58">
+      <c r="V21" s="49">
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="W21" s="60">
+      <c r="W21" s="51">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="X21" s="59">
+      <c r="X21" s="50">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="Y21" s="57">
+      <c r="Y21" s="48">
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="48">
+      <c r="A22" s="39">
         <v>2002</v>
       </c>
-      <c r="B22" s="54">
+      <c r="B22" s="45">
         <v>2003</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="45">
         <v>2004</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="45">
         <v>2005</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="45">
         <v>2006</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="44">
         <v>2007</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="49">
         <v>2006</v>
       </c>
-      <c r="H22" s="58">
+      <c r="H22" s="49">
         <v>2007</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="49">
         <v>2008</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="51">
         <v>2007</v>
       </c>
-      <c r="K22" s="59">
+      <c r="K22" s="50">
         <v>2008</v>
       </c>
-      <c r="L22" s="57">
+      <c r="L22" s="48">
         <v>2009</v>
       </c>
-      <c r="N22" s="48">
+      <c r="N22" s="39">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="O22" s="54">
+      <c r="O22" s="45">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="P22" s="54">
+      <c r="P22" s="45">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="Q22" s="54">
+      <c r="Q22" s="45">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="R22" s="54">
+      <c r="R22" s="45">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="S22" s="53">
+      <c r="S22" s="44">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="T22" s="58">
+      <c r="T22" s="49">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="U22" s="58">
+      <c r="U22" s="49">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="V22" s="58">
+      <c r="V22" s="49">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="W22" s="60">
+      <c r="W22" s="51">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="X22" s="59">
+      <c r="X22" s="50">
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
-      <c r="Y22" s="57">
+      <c r="Y22" s="48">
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="48">
+      <c r="A23" s="39">
         <v>2003</v>
       </c>
-      <c r="B23" s="54">
+      <c r="B23" s="45">
         <v>2004</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="45">
         <v>2005</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="45">
         <v>2006</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="45">
         <v>2007</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="44">
         <v>2008</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="49">
         <v>2007</v>
       </c>
-      <c r="H23" s="58">
+      <c r="H23" s="49">
         <v>2008</v>
       </c>
-      <c r="I23" s="58">
+      <c r="I23" s="49">
         <v>2009</v>
       </c>
-      <c r="J23" s="60">
+      <c r="J23" s="51">
         <v>2008</v>
       </c>
-      <c r="K23" s="59">
+      <c r="K23" s="50">
         <v>2009</v>
       </c>
-      <c r="L23" s="57">
+      <c r="L23" s="48">
         <v>2010</v>
       </c>
-      <c r="N23" s="48">
+      <c r="N23" s="39">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="O23" s="54">
+      <c r="O23" s="45">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="P23" s="54">
+      <c r="P23" s="45">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="Q23" s="54">
+      <c r="Q23" s="45">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="R23" s="54">
+      <c r="R23" s="45">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="S23" s="53">
+      <c r="S23" s="44">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="T23" s="58">
+      <c r="T23" s="49">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="U23" s="58">
+      <c r="U23" s="49">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="V23" s="58">
+      <c r="V23" s="49">
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="W23" s="60">
+      <c r="W23" s="51">
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="X23" s="59">
+      <c r="X23" s="50">
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="Y23" s="57">
+      <c r="Y23" s="48">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="48">
+      <c r="A24" s="39">
         <v>2004</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="45">
         <v>2005</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="45">
         <v>2006</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="45">
         <v>2007</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="45">
         <v>2008</v>
       </c>
-      <c r="F24" s="53">
+      <c r="F24" s="44">
         <v>2009</v>
       </c>
-      <c r="G24" s="58">
+      <c r="G24" s="49">
         <v>2008</v>
       </c>
-      <c r="H24" s="58">
+      <c r="H24" s="49">
         <v>2009</v>
       </c>
-      <c r="I24" s="58">
+      <c r="I24" s="49">
         <v>2010</v>
       </c>
-      <c r="J24" s="60">
+      <c r="J24" s="51">
         <v>2009</v>
       </c>
-      <c r="K24" s="59">
+      <c r="K24" s="50">
         <v>2010</v>
       </c>
-      <c r="L24" s="57">
+      <c r="L24" s="48">
         <v>2011</v>
       </c>
-      <c r="N24" s="48">
+      <c r="N24" s="39">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="O24" s="54">
+      <c r="O24" s="45">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="P24" s="54">
+      <c r="P24" s="45">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="Q24" s="54">
+      <c r="Q24" s="45">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="R24" s="54">
+      <c r="R24" s="45">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="S24" s="53">
+      <c r="S24" s="44">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="T24" s="58">
+      <c r="T24" s="49">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="U24" s="58">
+      <c r="U24" s="49">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="V24" s="58">
+      <c r="V24" s="49">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="W24" s="60">
+      <c r="W24" s="51">
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
-      <c r="X24" s="59">
+      <c r="X24" s="50">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="Y24" s="57">
+      <c r="Y24" s="48">
         <f t="shared" si="11"/>
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="48">
+      <c r="A25" s="39">
         <v>2005</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B25" s="45">
         <v>2006</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="45">
         <v>2007</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="45">
         <v>2008</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="45">
         <v>2009</v>
       </c>
-      <c r="F25" s="53">
+      <c r="F25" s="44">
         <v>2010</v>
       </c>
-      <c r="G25" s="58">
+      <c r="G25" s="49">
         <v>2009</v>
       </c>
-      <c r="H25" s="58">
+      <c r="H25" s="49">
         <v>2010</v>
       </c>
-      <c r="I25" s="58">
+      <c r="I25" s="49">
         <v>2011</v>
       </c>
-      <c r="J25" s="60">
+      <c r="J25" s="51">
         <v>2010</v>
       </c>
-      <c r="K25" s="59">
+      <c r="K25" s="50">
         <v>2011</v>
       </c>
-      <c r="L25" s="57">
+      <c r="L25" s="48">
         <v>2012</v>
       </c>
-      <c r="N25" s="48">
+      <c r="N25" s="39">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="O25" s="54">
+      <c r="O25" s="45">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="P25" s="54">
+      <c r="P25" s="45">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="Q25" s="54">
+      <c r="Q25" s="45">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="R25" s="54">
+      <c r="R25" s="45">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="S25" s="53">
+      <c r="S25" s="44">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="T25" s="58">
+      <c r="T25" s="49">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="U25" s="58">
+      <c r="U25" s="49">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="V25" s="58">
+      <c r="V25" s="49">
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="W25" s="60">
+      <c r="W25" s="51">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="X25" s="59">
+      <c r="X25" s="50">
         <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="Y25" s="57">
+      <c r="Y25" s="48">
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="48">
+      <c r="A26" s="39">
         <v>2006</v>
       </c>
-      <c r="B26" s="54">
+      <c r="B26" s="45">
         <v>2007</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="45">
         <v>2008</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="45">
         <v>2009</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="45">
         <v>2010</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="44">
         <v>2011</v>
       </c>
-      <c r="G26" s="58">
+      <c r="G26" s="49">
         <v>2010</v>
       </c>
-      <c r="H26" s="58">
+      <c r="H26" s="49">
         <v>2011</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="49">
         <v>2012</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="51">
         <v>2011</v>
       </c>
-      <c r="K26" s="59">
+      <c r="K26" s="50">
         <v>2012</v>
       </c>
-      <c r="L26" s="57">
+      <c r="L26" s="48">
         <v>2013</v>
       </c>
-      <c r="N26" s="48">
+      <c r="N26" s="39">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="O26" s="54">
+      <c r="O26" s="45">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="P26" s="54">
+      <c r="P26" s="45">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="Q26" s="54">
+      <c r="Q26" s="45">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="R26" s="54">
+      <c r="R26" s="45">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="S26" s="53">
+      <c r="S26" s="44">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="T26" s="58">
+      <c r="T26" s="49">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="U26" s="58">
+      <c r="U26" s="49">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="V26" s="58">
+      <c r="V26" s="49">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="W26" s="60">
+      <c r="W26" s="51">
         <f t="shared" si="10"/>
         <v>29</v>
       </c>
-      <c r="X26" s="59">
+      <c r="X26" s="50">
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="Y26" s="57">
+      <c r="Y26" s="48">
         <f t="shared" si="11"/>
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="48">
+      <c r="A27" s="39">
         <v>2007</v>
       </c>
-      <c r="B27" s="54">
+      <c r="B27" s="45">
         <v>2008</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="45">
         <v>2009</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="45">
         <v>2010</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="45">
         <v>2011</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="44">
         <v>2012</v>
       </c>
-      <c r="G27" s="58">
+      <c r="G27" s="49">
         <v>2011</v>
       </c>
-      <c r="H27" s="58">
+      <c r="H27" s="49">
         <v>2012</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="49">
         <v>2013</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="51">
         <v>2012</v>
       </c>
-      <c r="K27" s="59">
+      <c r="K27" s="50">
         <v>2013</v>
       </c>
-      <c r="L27" s="57">
+      <c r="L27" s="48">
         <v>2014</v>
       </c>
-      <c r="N27" s="48">
+      <c r="N27" s="39">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="O27" s="54">
+      <c r="O27" s="45">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="P27" s="54">
+      <c r="P27" s="45">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="Q27" s="54">
+      <c r="Q27" s="45">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="R27" s="54">
+      <c r="R27" s="45">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="S27" s="53">
+      <c r="S27" s="44">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="T27" s="58">
+      <c r="T27" s="49">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="U27" s="58">
+      <c r="U27" s="49">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="V27" s="58">
+      <c r="V27" s="49">
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
-      <c r="W27" s="60">
+      <c r="W27" s="51">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="X27" s="59">
+      <c r="X27" s="50">
         <f t="shared" si="11"/>
         <v>31</v>
       </c>
-      <c r="Y27" s="57">
+      <c r="Y27" s="48">
         <f t="shared" si="11"/>
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="48">
+      <c r="A28" s="39">
         <v>2008</v>
       </c>
-      <c r="B28" s="54">
+      <c r="B28" s="45">
         <v>2009</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="45">
         <v>2010</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28" s="45">
         <v>2011</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="45">
         <v>2012</v>
       </c>
-      <c r="F28" s="53">
+      <c r="F28" s="44">
         <v>2013</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G28" s="49">
         <v>2012</v>
       </c>
-      <c r="H28" s="58">
+      <c r="H28" s="49">
         <v>2013</v>
       </c>
-      <c r="I28" s="58">
+      <c r="I28" s="49">
         <v>2014</v>
       </c>
-      <c r="J28" s="60">
+      <c r="J28" s="51">
         <v>2013</v>
       </c>
-      <c r="K28" s="59">
+      <c r="K28" s="50">
         <v>2014</v>
       </c>
-      <c r="L28" s="57">
+      <c r="L28" s="48">
         <v>2015</v>
       </c>
-      <c r="N28" s="48">
+      <c r="N28" s="39">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="O28" s="54">
+      <c r="O28" s="45">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="P28" s="54">
+      <c r="P28" s="45">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="Q28" s="54">
+      <c r="Q28" s="45">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="R28" s="54">
+      <c r="R28" s="45">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="S28" s="53">
+      <c r="S28" s="44">
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="T28" s="58">
+      <c r="T28" s="49">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="U28" s="58">
+      <c r="U28" s="49">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="V28" s="58">
+      <c r="V28" s="49">
         <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="W28" s="60">
+      <c r="W28" s="51">
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="X28" s="59">
+      <c r="X28" s="50">
         <f t="shared" si="11"/>
         <v>32</v>
       </c>
-      <c r="Y28" s="57">
+      <c r="Y28" s="48">
         <f t="shared" si="11"/>
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="48">
+      <c r="A29" s="39">
         <v>2009</v>
       </c>
-      <c r="B29" s="54">
+      <c r="B29" s="45">
         <v>2010</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="45">
         <v>2011</v>
       </c>
-      <c r="D29" s="54">
+      <c r="D29" s="45">
         <v>2012</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="45">
         <v>2013</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="44">
         <v>2014</v>
       </c>
-      <c r="G29" s="58">
+      <c r="G29" s="49">
         <v>2013</v>
       </c>
-      <c r="H29" s="58">
+      <c r="H29" s="49">
         <v>2014</v>
       </c>
-      <c r="I29" s="58">
+      <c r="I29" s="49">
         <v>2015</v>
       </c>
-      <c r="J29" s="60">
+      <c r="J29" s="51">
         <v>2014</v>
       </c>
-      <c r="K29" s="59">
+      <c r="K29" s="50">
         <v>2015</v>
       </c>
-      <c r="L29" s="57">
+      <c r="L29" s="48">
         <v>2016</v>
       </c>
-      <c r="N29" s="48">
+      <c r="N29" s="39">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="O29" s="54">
+      <c r="O29" s="45">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="P29" s="54">
+      <c r="P29" s="45">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="Q29" s="54">
+      <c r="Q29" s="45">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="R29" s="54">
+      <c r="R29" s="45">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="S29" s="53">
+      <c r="S29" s="44">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="T29" s="58">
+      <c r="T29" s="49">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="U29" s="58">
+      <c r="U29" s="49">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="V29" s="58">
+      <c r="V29" s="49">
         <f t="shared" si="9"/>
         <v>33</v>
       </c>
-      <c r="W29" s="60">
+      <c r="W29" s="51">
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="X29" s="59">
+      <c r="X29" s="50">
         <f t="shared" si="11"/>
         <v>33</v>
       </c>
-      <c r="Y29" s="57">
+      <c r="Y29" s="48">
         <f t="shared" si="11"/>
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="48">
+      <c r="A30" s="39">
         <v>2010</v>
       </c>
-      <c r="B30" s="54">
+      <c r="B30" s="45">
         <v>2011</v>
       </c>
-      <c r="C30" s="54">
+      <c r="C30" s="45">
         <v>2012</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="45">
         <v>2013</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="45">
         <v>2014</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F30" s="44">
         <v>2015</v>
       </c>
-      <c r="G30" s="58">
+      <c r="G30" s="49">
         <v>2014</v>
       </c>
-      <c r="H30" s="58">
+      <c r="H30" s="49">
         <v>2015</v>
       </c>
-      <c r="I30" s="58">
+      <c r="I30" s="49">
         <v>2016</v>
       </c>
-      <c r="J30" s="60">
+      <c r="J30" s="51">
         <v>2015</v>
       </c>
-      <c r="K30" s="59">
+      <c r="K30" s="50">
         <v>2016</v>
       </c>
-      <c r="L30" s="57">
+      <c r="L30" s="48">
         <v>2017</v>
       </c>
-      <c r="N30" s="48">
+      <c r="N30" s="39">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="O30" s="54">
+      <c r="O30" s="45">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="P30" s="54">
+      <c r="P30" s="45">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="Q30" s="54">
+      <c r="Q30" s="45">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="R30" s="54">
+      <c r="R30" s="45">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="S30" s="53">
+      <c r="S30" s="44">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="T30" s="58">
+      <c r="T30" s="49">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="U30" s="58">
+      <c r="U30" s="49">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="V30" s="58">
+      <c r="V30" s="49">
         <f t="shared" si="9"/>
         <v>34</v>
       </c>
-      <c r="W30" s="60">
+      <c r="W30" s="51">
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
-      <c r="X30" s="59">
+      <c r="X30" s="50">
         <f t="shared" si="11"/>
         <v>34</v>
       </c>
-      <c r="Y30" s="57">
+      <c r="Y30" s="48">
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="48">
+      <c r="A31" s="39">
         <v>2011</v>
       </c>
-      <c r="B31" s="54">
+      <c r="B31" s="45">
         <v>2012</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="45">
         <v>2013</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="45">
         <v>2014</v>
       </c>
-      <c r="E31" s="54">
+      <c r="E31" s="45">
         <v>2015</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="44">
         <v>2016</v>
       </c>
-      <c r="G31" s="58">
+      <c r="G31" s="49">
         <v>2015</v>
       </c>
-      <c r="H31" s="58">
+      <c r="H31" s="49">
         <v>2016</v>
       </c>
-      <c r="I31" s="58">
+      <c r="I31" s="49">
         <v>2017</v>
       </c>
-      <c r="J31" s="60">
+      <c r="J31" s="51">
         <v>2016</v>
       </c>
-      <c r="K31" s="59">
+      <c r="K31" s="50">
         <v>2017</v>
       </c>
-      <c r="L31" s="57">
+      <c r="L31" s="48">
         <v>2018</v>
       </c>
-      <c r="N31" s="48">
+      <c r="N31" s="39">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="O31" s="54">
+      <c r="O31" s="45">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="P31" s="54">
+      <c r="P31" s="45">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="Q31" s="54">
+      <c r="Q31" s="45">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="R31" s="54">
+      <c r="R31" s="45">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="S31" s="53">
+      <c r="S31" s="44">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="T31" s="58">
+      <c r="T31" s="49">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="U31" s="58">
+      <c r="U31" s="49">
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="V31" s="58">
+      <c r="V31" s="49">
         <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="W31" s="60">
+      <c r="W31" s="51">
         <f t="shared" si="10"/>
         <v>34</v>
       </c>
-      <c r="X31" s="59">
+      <c r="X31" s="50">
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
-      <c r="Y31" s="57">
+      <c r="Y31" s="48">
         <f t="shared" si="11"/>
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="48">
+      <c r="A32" s="39">
         <v>2012</v>
       </c>
-      <c r="B32" s="54">
+      <c r="B32" s="45">
         <v>2013</v>
       </c>
-      <c r="C32" s="54">
+      <c r="C32" s="45">
         <v>2014</v>
       </c>
-      <c r="D32" s="54">
+      <c r="D32" s="45">
         <v>2015</v>
       </c>
-      <c r="E32" s="54">
+      <c r="E32" s="45">
         <v>2016</v>
       </c>
-      <c r="F32" s="53">
+      <c r="F32" s="44">
         <v>2017</v>
       </c>
-      <c r="G32" s="58">
+      <c r="G32" s="49">
         <v>2016</v>
       </c>
-      <c r="H32" s="58">
+      <c r="H32" s="49">
         <v>2017</v>
       </c>
-      <c r="I32" s="58">
+      <c r="I32" s="49">
         <v>2018</v>
       </c>
-      <c r="J32" s="60">
+      <c r="J32" s="51">
         <v>2017</v>
       </c>
-      <c r="K32" s="59">
+      <c r="K32" s="50">
         <v>2018</v>
       </c>
-      <c r="L32" s="57">
+      <c r="L32" s="48">
         <v>2019</v>
       </c>
-      <c r="N32" s="48">
+      <c r="N32" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O32" s="54">
+      <c r="O32" s="45">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="P32" s="54">
+      <c r="P32" s="45">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="Q32" s="54">
+      <c r="Q32" s="45">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="R32" s="54">
+      <c r="R32" s="45">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="S32" s="53">
+      <c r="S32" s="44">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="T32" s="58">
+      <c r="T32" s="49">
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="U32" s="58">
+      <c r="U32" s="49">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="V32" s="58">
+      <c r="V32" s="49">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="W32" s="60">
+      <c r="W32" s="51">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="X32" s="59">
+      <c r="X32" s="50">
         <f t="shared" si="11"/>
         <v>36</v>
       </c>
-      <c r="Y32" s="57">
+      <c r="Y32" s="48">
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="48">
+      <c r="A33" s="39">
         <v>2013</v>
       </c>
-      <c r="B33" s="54">
+      <c r="B33" s="45">
         <v>2014</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="45">
         <v>2015</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D33" s="45">
         <v>2016</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="45">
         <v>2017</v>
       </c>
-      <c r="F33" s="53">
+      <c r="F33" s="44">
         <v>2018</v>
       </c>
-      <c r="G33" s="58">
+      <c r="G33" s="49">
         <v>2017</v>
       </c>
-      <c r="H33" s="58">
+      <c r="H33" s="49">
         <v>2018</v>
       </c>
-      <c r="I33" s="58">
+      <c r="I33" s="49">
         <v>2019</v>
       </c>
-      <c r="J33" s="60">
+      <c r="J33" s="51">
         <v>2018</v>
       </c>
-      <c r="K33" s="59">
+      <c r="K33" s="50">
         <v>2019</v>
       </c>
-      <c r="L33" s="57">
+      <c r="L33" s="48">
         <v>2020</v>
       </c>
-      <c r="N33" s="48">
+      <c r="N33" s="39">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="O33" s="54">
+      <c r="O33" s="45">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="P33" s="54">
+      <c r="P33" s="45">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="Q33" s="54">
+      <c r="Q33" s="45">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="R33" s="54">
+      <c r="R33" s="45">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="S33" s="53">
+      <c r="S33" s="44">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="T33" s="58">
+      <c r="T33" s="49">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="U33" s="58">
+      <c r="U33" s="49">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="V33" s="58">
+      <c r="V33" s="49">
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="W33" s="60">
+      <c r="W33" s="51">
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="X33" s="59">
+      <c r="X33" s="50">
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
-      <c r="Y33" s="57">
+      <c r="Y33" s="48">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="48">
+      <c r="A34" s="39">
         <v>2014</v>
       </c>
-      <c r="B34" s="54">
+      <c r="B34" s="45">
         <v>2015</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C34" s="45">
         <v>2016</v>
       </c>
-      <c r="D34" s="54">
+      <c r="D34" s="45">
         <v>2017</v>
       </c>
-      <c r="E34" s="54">
+      <c r="E34" s="45">
         <v>2018</v>
       </c>
-      <c r="F34" s="53">
+      <c r="F34" s="44">
         <v>2019</v>
       </c>
-      <c r="G34" s="58">
+      <c r="G34" s="49">
         <v>2018</v>
       </c>
-      <c r="H34" s="58">
+      <c r="H34" s="49">
         <v>2019</v>
       </c>
-      <c r="I34" s="58">
+      <c r="I34" s="49">
         <v>2020</v>
       </c>
-      <c r="J34" s="60">
+      <c r="J34" s="51">
         <v>2019</v>
       </c>
-      <c r="K34" s="59">
+      <c r="K34" s="50">
         <v>2020</v>
       </c>
-      <c r="L34" s="57">
+      <c r="L34" s="48">
         <v>2021</v>
       </c>
-      <c r="N34" s="48">
+      <c r="N34" s="39">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O34" s="54">
+      <c r="O34" s="45">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="P34" s="54">
+      <c r="P34" s="45">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="Q34" s="54">
+      <c r="Q34" s="45">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="R34" s="54">
+      <c r="R34" s="45">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="S34" s="53">
+      <c r="S34" s="44">
         <f t="shared" si="6"/>
         <v>37</v>
       </c>
-      <c r="T34" s="58">
+      <c r="T34" s="49">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="U34" s="58">
+      <c r="U34" s="49">
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="V34" s="58">
+      <c r="V34" s="49">
         <f t="shared" si="9"/>
         <v>38</v>
       </c>
-      <c r="W34" s="60">
+      <c r="W34" s="51">
         <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="X34" s="59">
+      <c r="X34" s="50">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="Y34" s="57">
+      <c r="Y34" s="48">
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="48">
+      <c r="A35" s="39">
         <v>2015</v>
       </c>
-      <c r="B35" s="54">
+      <c r="B35" s="45">
         <v>2016</v>
       </c>
-      <c r="C35" s="54">
+      <c r="C35" s="45">
         <v>2017</v>
       </c>
-      <c r="D35" s="54">
+      <c r="D35" s="45">
         <v>2018</v>
       </c>
-      <c r="E35" s="54">
+      <c r="E35" s="45">
         <v>2019</v>
       </c>
-      <c r="F35" s="53">
+      <c r="F35" s="44">
         <v>2020</v>
       </c>
-      <c r="G35" s="58">
+      <c r="G35" s="49">
         <v>2019</v>
       </c>
-      <c r="H35" s="58">
+      <c r="H35" s="49">
         <v>2020</v>
       </c>
-      <c r="I35" s="58">
+      <c r="I35" s="49">
         <v>2021</v>
       </c>
-      <c r="J35" s="60">
+      <c r="J35" s="51">
         <v>2020</v>
       </c>
-      <c r="K35" s="59">
+      <c r="K35" s="50">
         <v>2021</v>
       </c>
-      <c r="L35" s="57">
+      <c r="L35" s="48">
         <v>2022</v>
       </c>
-      <c r="N35" s="48">
+      <c r="N35" s="39">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="O35" s="54">
+      <c r="O35" s="45">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="P35" s="54">
+      <c r="P35" s="45">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="Q35" s="54">
+      <c r="Q35" s="45">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="R35" s="54">
+      <c r="R35" s="45">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="S35" s="53">
+      <c r="S35" s="44">
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="T35" s="58">
+      <c r="T35" s="49">
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="U35" s="58">
+      <c r="U35" s="49">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="V35" s="58">
+      <c r="V35" s="49">
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="W35" s="60">
+      <c r="W35" s="51">
         <f t="shared" si="10"/>
         <v>38</v>
       </c>
-      <c r="X35" s="59">
+      <c r="X35" s="50">
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
-      <c r="Y35" s="57">
+      <c r="Y35" s="48">
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="48">
+      <c r="A36" s="39">
         <v>2016</v>
       </c>
-      <c r="B36" s="54">
+      <c r="B36" s="45">
         <v>2017</v>
       </c>
-      <c r="C36" s="54">
+      <c r="C36" s="45">
         <v>2018</v>
       </c>
-      <c r="D36" s="54">
+      <c r="D36" s="45">
         <v>2019</v>
       </c>
-      <c r="E36" s="54">
+      <c r="E36" s="45">
         <v>2020</v>
       </c>
-      <c r="F36" s="53">
+      <c r="F36" s="44">
         <v>2021</v>
       </c>
-      <c r="G36" s="58">
+      <c r="G36" s="49">
         <v>2020</v>
       </c>
-      <c r="H36" s="58">
+      <c r="H36" s="49">
         <v>2021</v>
       </c>
-      <c r="I36" s="58">
+      <c r="I36" s="49">
         <v>2022</v>
       </c>
-      <c r="J36" s="60">
+      <c r="J36" s="51">
         <v>2021</v>
       </c>
-      <c r="K36" s="59">
+      <c r="K36" s="50">
         <v>2022</v>
       </c>
-      <c r="L36" s="61">
+      <c r="L36" s="52">
         <v>2023</v>
       </c>
-      <c r="N36" s="48">
+      <c r="N36" s="39">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="O36" s="54">
+      <c r="O36" s="45">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="P36" s="54">
+      <c r="P36" s="45">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="Q36" s="54">
+      <c r="Q36" s="45">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="R36" s="54">
+      <c r="R36" s="45">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="S36" s="53">
+      <c r="S36" s="44">
         <f t="shared" si="6"/>
         <v>39</v>
       </c>
-      <c r="T36" s="58">
+      <c r="T36" s="49">
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="U36" s="58">
+      <c r="U36" s="49">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="V36" s="58">
+      <c r="V36" s="49">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="W36" s="60">
+      <c r="W36" s="51">
         <f t="shared" si="10"/>
         <v>39</v>
       </c>
-      <c r="X36" s="59">
+      <c r="X36" s="50">
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
-      <c r="Y36" s="61">
+      <c r="Y36" s="52">
         <f t="shared" si="11"/>
         <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="48">
+      <c r="A37" s="39">
         <v>2017</v>
       </c>
-      <c r="B37" s="54">
+      <c r="B37" s="45">
         <v>2018</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="45">
         <v>2019</v>
       </c>
-      <c r="D37" s="54">
+      <c r="D37" s="45">
         <v>2020</v>
       </c>
-      <c r="E37" s="54">
+      <c r="E37" s="45">
         <v>2021</v>
       </c>
-      <c r="F37" s="53">
+      <c r="F37" s="44">
         <v>2022</v>
       </c>
-      <c r="G37" s="58">
+      <c r="G37" s="49">
         <v>2021</v>
       </c>
-      <c r="H37" s="58">
+      <c r="H37" s="49">
         <v>2022</v>
       </c>
-      <c r="I37" s="55">
+      <c r="I37" s="46">
         <v>2023</v>
       </c>
-      <c r="J37" s="60">
+      <c r="J37" s="51">
         <v>2022</v>
       </c>
-      <c r="K37" s="62">
+      <c r="K37" s="53">
         <v>2023</v>
       </c>
-      <c r="L37" s="61">
+      <c r="L37" s="52">
         <v>2024</v>
       </c>
-      <c r="N37" s="48">
+      <c r="N37" s="39">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="O37" s="54">
+      <c r="O37" s="45">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="P37" s="54">
+      <c r="P37" s="45">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="Q37" s="54">
+      <c r="Q37" s="45">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="R37" s="54">
+      <c r="R37" s="45">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="S37" s="53">
+      <c r="S37" s="44">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="T37" s="58">
+      <c r="T37" s="49">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="U37" s="58">
+      <c r="U37" s="49">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="V37" s="55">
+      <c r="V37" s="46">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
-      <c r="W37" s="60">
+      <c r="W37" s="51">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="X37" s="62">
+      <c r="X37" s="53">
         <f t="shared" si="11"/>
         <v>41</v>
       </c>
-      <c r="Y37" s="61">
+      <c r="Y37" s="52">
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="48">
+      <c r="A38" s="39">
         <v>2018</v>
       </c>
-      <c r="B38" s="54">
+      <c r="B38" s="45">
         <v>2019</v>
       </c>
-      <c r="C38" s="54">
+      <c r="C38" s="45">
         <v>2020</v>
       </c>
-      <c r="D38" s="54">
+      <c r="D38" s="45">
         <v>2021</v>
       </c>
-      <c r="E38" s="54">
+      <c r="E38" s="45">
         <v>2022</v>
       </c>
-      <c r="F38" s="50">
+      <c r="F38" s="41">
         <v>2023</v>
       </c>
-      <c r="G38" s="58">
+      <c r="G38" s="49">
         <v>2022</v>
       </c>
-      <c r="H38" s="55">
+      <c r="H38" s="46">
         <v>2023</v>
       </c>
-      <c r="I38" s="55">
+      <c r="I38" s="46">
         <v>2024</v>
       </c>
-      <c r="J38" s="56">
+      <c r="J38" s="47">
         <v>2023</v>
       </c>
-      <c r="K38" s="62">
+      <c r="K38" s="53">
         <v>2024</v>
       </c>
-      <c r="L38" s="61">
+      <c r="L38" s="52">
         <v>2025</v>
       </c>
-      <c r="N38" s="48">
+      <c r="N38" s="39">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="O38" s="54">
+      <c r="O38" s="45">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="P38" s="54">
+      <c r="P38" s="45">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="Q38" s="54">
+      <c r="Q38" s="45">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="R38" s="54">
+      <c r="R38" s="45">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="S38" s="50">
+      <c r="S38" s="41">
         <f t="shared" si="6"/>
         <v>41</v>
       </c>
-      <c r="T38" s="58">
+      <c r="T38" s="49">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="U38" s="55">
+      <c r="U38" s="46">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="V38" s="55">
+      <c r="V38" s="46">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="W38" s="56">
+      <c r="W38" s="47">
         <f t="shared" si="10"/>
         <v>41</v>
       </c>
-      <c r="X38" s="62">
+      <c r="X38" s="53">
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
-      <c r="Y38" s="61">
+      <c r="Y38" s="52">
         <f t="shared" si="11"/>
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="48">
+      <c r="A39" s="39">
         <v>2019</v>
       </c>
-      <c r="B39" s="54">
+      <c r="B39" s="45">
         <v>2020</v>
       </c>
-      <c r="C39" s="54">
+      <c r="C39" s="45">
         <v>2021</v>
       </c>
-      <c r="D39" s="54">
+      <c r="D39" s="45">
         <v>2022</v>
       </c>
-      <c r="E39" s="49">
+      <c r="E39" s="40">
         <v>2023</v>
       </c>
-      <c r="F39" s="50">
+      <c r="F39" s="41">
         <v>2024</v>
       </c>
-      <c r="G39" s="55">
+      <c r="G39" s="46">
         <v>2023</v>
       </c>
-      <c r="H39" s="55">
+      <c r="H39" s="46">
         <v>2024</v>
       </c>
-      <c r="I39" s="55">
+      <c r="I39" s="46">
         <v>2025</v>
       </c>
-      <c r="J39" s="56">
+      <c r="J39" s="47">
         <v>2024</v>
       </c>
-      <c r="K39" s="62">
+      <c r="K39" s="53">
         <v>2025</v>
       </c>
-      <c r="L39" s="61">
+      <c r="L39" s="52">
         <v>2026</v>
       </c>
-      <c r="N39" s="48">
+      <c r="N39" s="39">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="O39" s="54">
+      <c r="O39" s="45">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="P39" s="54">
+      <c r="P39" s="45">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="Q39" s="54">
+      <c r="Q39" s="45">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="R39" s="49">
+      <c r="R39" s="40">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="S39" s="50">
+      <c r="S39" s="41">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="T39" s="55">
+      <c r="T39" s="46">
         <f t="shared" si="7"/>
         <v>41</v>
       </c>
-      <c r="U39" s="55">
+      <c r="U39" s="46">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="V39" s="55">
+      <c r="V39" s="46">
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
-      <c r="W39" s="56">
+      <c r="W39" s="47">
         <f t="shared" si="10"/>
         <v>42</v>
       </c>
-      <c r="X39" s="62">
+      <c r="X39" s="53">
         <f t="shared" si="11"/>
         <v>43</v>
       </c>
-      <c r="Y39" s="61">
+      <c r="Y39" s="52">
         <f t="shared" si="11"/>
         <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="48">
+      <c r="A40" s="39">
         <v>2020</v>
       </c>
-      <c r="B40" s="54">
+      <c r="B40" s="45">
         <v>2021</v>
       </c>
-      <c r="C40" s="54">
+      <c r="C40" s="45">
         <v>2022</v>
       </c>
-      <c r="D40" s="49">
+      <c r="D40" s="40">
         <v>2023</v>
       </c>
-      <c r="E40" s="49">
+      <c r="E40" s="40">
         <v>2024</v>
       </c>
-      <c r="F40" s="50">
+      <c r="F40" s="41">
         <v>2025</v>
       </c>
-      <c r="G40" s="55">
+      <c r="G40" s="46">
         <v>2024</v>
       </c>
-      <c r="H40" s="55">
+      <c r="H40" s="46">
         <v>2025</v>
       </c>
-      <c r="I40" s="55">
+      <c r="I40" s="46">
         <v>2026</v>
       </c>
-      <c r="J40" s="56">
+      <c r="J40" s="47">
         <v>2025</v>
       </c>
-      <c r="K40" s="62">
+      <c r="K40" s="53">
         <v>2026</v>
       </c>
-      <c r="L40" s="61">
+      <c r="L40" s="52">
         <v>2027</v>
       </c>
-      <c r="N40" s="48">
+      <c r="N40" s="39">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="O40" s="54">
+      <c r="O40" s="45">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="P40" s="54">
+      <c r="P40" s="45">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="Q40" s="49">
+      <c r="Q40" s="40">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="R40" s="49">
+      <c r="R40" s="40">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="S40" s="50">
+      <c r="S40" s="41">
         <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="T40" s="55">
+      <c r="T40" s="46">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="U40" s="55">
+      <c r="U40" s="46">
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="V40" s="55">
+      <c r="V40" s="46">
         <f t="shared" si="9"/>
         <v>44</v>
       </c>
-      <c r="W40" s="56">
+      <c r="W40" s="47">
         <f t="shared" si="10"/>
         <v>43</v>
       </c>
-      <c r="X40" s="62">
+      <c r="X40" s="53">
         <f t="shared" si="11"/>
         <v>44</v>
       </c>
-      <c r="Y40" s="61">
+      <c r="Y40" s="52">
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="48">
+      <c r="A41" s="39">
         <v>2021</v>
       </c>
-      <c r="B41" s="54">
+      <c r="B41" s="45">
         <v>2022</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="40">
         <v>2023</v>
       </c>
-      <c r="D41" s="49">
+      <c r="D41" s="40">
         <v>2024</v>
       </c>
-      <c r="E41" s="49">
+      <c r="E41" s="40">
         <v>2025</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F41" s="41">
         <v>2026</v>
       </c>
-      <c r="G41" s="55">
+      <c r="G41" s="46">
         <v>2025</v>
       </c>
-      <c r="H41" s="55">
+      <c r="H41" s="46">
         <v>2026</v>
       </c>
-      <c r="I41" s="55">
+      <c r="I41" s="46">
         <v>2027</v>
       </c>
-      <c r="J41" s="56">
+      <c r="J41" s="47">
         <v>2026</v>
       </c>
-      <c r="K41" s="62">
+      <c r="K41" s="53">
         <v>2027</v>
       </c>
-      <c r="L41" s="61">
+      <c r="L41" s="52">
         <v>2028</v>
       </c>
-      <c r="N41" s="48">
+      <c r="N41" s="39">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="O41" s="54">
+      <c r="O41" s="45">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="P41" s="49">
+      <c r="P41" s="40">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="Q41" s="49">
+      <c r="Q41" s="40">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="R41" s="49">
+      <c r="R41" s="40">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="S41" s="50">
+      <c r="S41" s="41">
         <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="T41" s="55">
+      <c r="T41" s="46">
         <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="U41" s="55">
+      <c r="U41" s="46">
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
-      <c r="V41" s="55">
+      <c r="V41" s="46">
         <f t="shared" si="9"/>
         <v>45</v>
       </c>
-      <c r="W41" s="56">
+      <c r="W41" s="47">
         <f t="shared" si="10"/>
         <v>44</v>
       </c>
-      <c r="X41" s="62">
+      <c r="X41" s="53">
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
-      <c r="Y41" s="61">
+      <c r="Y41" s="52">
         <f t="shared" si="11"/>
         <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="48">
+      <c r="A42" s="39">
         <v>2022</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="40">
         <v>2023</v>
       </c>
-      <c r="C42" s="49">
+      <c r="C42" s="40">
         <v>2024</v>
       </c>
-      <c r="D42" s="49">
+      <c r="D42" s="40">
         <v>2025</v>
       </c>
-      <c r="E42" s="49">
+      <c r="E42" s="40">
         <v>2026</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F42" s="41">
         <v>2027</v>
       </c>
-      <c r="G42" s="55">
+      <c r="G42" s="46">
         <v>2026</v>
       </c>
-      <c r="H42" s="55">
+      <c r="H42" s="46">
         <v>2027</v>
       </c>
-      <c r="I42" s="55">
+      <c r="I42" s="46">
         <v>2028</v>
       </c>
-      <c r="J42" s="56">
+      <c r="J42" s="47">
         <v>2027</v>
       </c>
-      <c r="K42" s="62">
+      <c r="K42" s="53">
         <v>2028</v>
       </c>
-      <c r="L42" s="61">
+      <c r="L42" s="52">
         <v>2029</v>
       </c>
-      <c r="N42" s="48">
+      <c r="N42" s="39">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="O42" s="49">
+      <c r="O42" s="40">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="P42" s="49">
+      <c r="P42" s="40">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="Q42" s="49">
+      <c r="Q42" s="40">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="R42" s="49">
+      <c r="R42" s="40">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="S42" s="50">
+      <c r="S42" s="41">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="T42" s="55">
+      <c r="T42" s="46">
         <f t="shared" si="7"/>
         <v>44</v>
       </c>
-      <c r="U42" s="55">
+      <c r="U42" s="46">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="V42" s="55">
+      <c r="V42" s="46">
         <f t="shared" si="9"/>
         <v>46</v>
       </c>
-      <c r="W42" s="56">
+      <c r="W42" s="47">
         <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="X42" s="62">
+      <c r="X42" s="53">
         <f t="shared" si="11"/>
         <v>46</v>
       </c>
-      <c r="Y42" s="61">
+      <c r="Y42" s="52">
         <f t="shared" si="11"/>
         <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="46">
+      <c r="A43" s="37">
         <v>2023</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="40">
         <v>2024</v>
       </c>
-      <c r="C43" s="49">
+      <c r="C43" s="40">
         <v>2025</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="40">
         <v>2026</v>
       </c>
-      <c r="E43" s="49">
+      <c r="E43" s="40">
         <v>2027</v>
       </c>
-      <c r="F43" s="50">
+      <c r="F43" s="41">
         <v>2028</v>
       </c>
-      <c r="G43" s="55">
+      <c r="G43" s="46">
         <v>2027</v>
       </c>
-      <c r="H43" s="55">
+      <c r="H43" s="46">
         <v>2028</v>
       </c>
-      <c r="I43" s="55">
+      <c r="I43" s="46">
         <v>2029</v>
       </c>
-      <c r="J43" s="56">
+      <c r="J43" s="47">
         <v>2028</v>
       </c>
-      <c r="K43" s="62">
+      <c r="K43" s="53">
         <v>2029</v>
       </c>
-      <c r="L43" s="61">
+      <c r="L43" s="52">
         <v>2030</v>
       </c>
-      <c r="N43" s="46">
+      <c r="N43" s="37">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="O43" s="49">
+      <c r="O43" s="40">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="P43" s="49">
+      <c r="P43" s="40">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="Q43" s="49">
+      <c r="Q43" s="40">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="R43" s="49">
+      <c r="R43" s="40">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="S43" s="50">
+      <c r="S43" s="41">
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="T43" s="55">
+      <c r="T43" s="46">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="U43" s="55">
+      <c r="U43" s="46">
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="V43" s="55">
+      <c r="V43" s="46">
         <f t="shared" si="9"/>
         <v>47</v>
       </c>
-      <c r="W43" s="56">
+      <c r="W43" s="47">
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="X43" s="62">
+      <c r="X43" s="53">
         <f t="shared" si="11"/>
         <v>47</v>
       </c>
-      <c r="Y43" s="61">
+      <c r="Y43" s="52">
         <f t="shared" si="11"/>
         <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="46">
+      <c r="A44" s="37">
         <v>2024</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="40">
         <v>2025</v>
       </c>
-      <c r="C44" s="49">
+      <c r="C44" s="40">
         <v>2026</v>
       </c>
-      <c r="D44" s="49">
+      <c r="D44" s="40">
         <v>2027</v>
       </c>
-      <c r="E44" s="49">
+      <c r="E44" s="40">
         <v>2028</v>
       </c>
-      <c r="F44" s="50">
+      <c r="F44" s="41">
         <v>2029</v>
       </c>
-      <c r="G44" s="55">
+      <c r="G44" s="46">
         <v>2028</v>
       </c>
-      <c r="H44" s="55">
+      <c r="H44" s="46">
         <v>2029</v>
       </c>
-      <c r="I44" s="55">
+      <c r="I44" s="46">
         <v>2030</v>
       </c>
-      <c r="J44" s="56">
+      <c r="J44" s="47">
         <v>2029</v>
       </c>
-      <c r="K44" s="62">
+      <c r="K44" s="53">
         <v>2030</v>
       </c>
-      <c r="L44" s="61">
+      <c r="L44" s="52">
         <v>2031</v>
       </c>
-      <c r="N44" s="46">
+      <c r="N44" s="37">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="O44" s="49">
+      <c r="O44" s="40">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="P44" s="49">
+      <c r="P44" s="40">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="Q44" s="49">
+      <c r="Q44" s="40">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="R44" s="49">
+      <c r="R44" s="40">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="S44" s="50">
+      <c r="S44" s="41">
         <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="T44" s="55">
+      <c r="T44" s="46">
         <f t="shared" si="7"/>
         <v>46</v>
       </c>
-      <c r="U44" s="55">
+      <c r="U44" s="46">
         <f t="shared" si="8"/>
         <v>47</v>
       </c>
-      <c r="V44" s="55">
+      <c r="V44" s="46">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="W44" s="56">
+      <c r="W44" s="47">
         <f t="shared" si="10"/>
         <v>47</v>
       </c>
-      <c r="X44" s="62">
+      <c r="X44" s="53">
         <f t="shared" si="11"/>
         <v>48</v>
       </c>
-      <c r="Y44" s="61">
+      <c r="Y44" s="52">
         <f t="shared" si="11"/>
         <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="46">
+      <c r="A45" s="37">
         <v>2025</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="40">
         <v>2026</v>
       </c>
-      <c r="C45" s="49">
+      <c r="C45" s="40">
         <v>2027</v>
       </c>
-      <c r="D45" s="49">
+      <c r="D45" s="40">
         <v>2028</v>
       </c>
-      <c r="E45" s="49">
+      <c r="E45" s="40">
         <v>2029</v>
       </c>
-      <c r="F45" s="50">
+      <c r="F45" s="41">
         <v>2030</v>
       </c>
-      <c r="G45" s="55">
+      <c r="G45" s="46">
         <v>2029</v>
       </c>
-      <c r="H45" s="55">
+      <c r="H45" s="46">
         <v>2030</v>
       </c>
-      <c r="I45" s="55">
+      <c r="I45" s="46">
         <v>2031</v>
       </c>
-      <c r="J45" s="56">
+      <c r="J45" s="47">
         <v>2030</v>
       </c>
-      <c r="K45" s="62">
+      <c r="K45" s="53">
         <v>2031</v>
       </c>
-      <c r="L45" s="61">
+      <c r="L45" s="52">
         <v>2032</v>
       </c>
-      <c r="N45" s="46">
+      <c r="N45" s="37">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="O45" s="49">
+      <c r="O45" s="40">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="P45" s="49">
+      <c r="P45" s="40">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="Q45" s="49">
+      <c r="Q45" s="40">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="R45" s="49">
+      <c r="R45" s="40">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="S45" s="50">
+      <c r="S45" s="41">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="T45" s="55">
+      <c r="T45" s="46">
         <f t="shared" si="7"/>
         <v>47</v>
       </c>
-      <c r="U45" s="55">
+      <c r="U45" s="46">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
-      <c r="V45" s="55">
+      <c r="V45" s="46">
         <f t="shared" si="9"/>
         <v>49</v>
       </c>
-      <c r="W45" s="56">
+      <c r="W45" s="47">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="X45" s="62">
+      <c r="X45" s="53">
         <f t="shared" si="11"/>
         <v>49</v>
       </c>
-      <c r="Y45" s="61">
+      <c r="Y45" s="52">
         <f>L45-$A$3+1</f>
         <v>50</v>
       </c>
@@ -9447,12 +11599,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9481,346 +11633,346 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="46">
+      <c r="A2" s="37">
         <v>1983</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="46">
+      <c r="A3" s="37">
         <v>1984</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
+      <c r="A4" s="37">
         <v>1985</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
+      <c r="A5" s="37">
         <v>1986</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="46">
+      <c r="A6" s="37">
         <v>1987</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="46">
+      <c r="A7" s="37">
         <v>1988</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="46">
+      <c r="A8" s="37">
         <v>1989</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
+      <c r="A9" s="38">
         <v>1990</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="38" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="A10" s="39">
         <v>1991</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="A11" s="39">
         <v>1992</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="39">
         <v>1993</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="A13" s="39">
         <v>1994</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="48">
+      <c r="A14" s="39">
         <v>1995</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
+      <c r="A15" s="37">
         <v>1996</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+      <c r="A16" s="39">
         <v>1997</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="48">
+      <c r="A17" s="39">
         <v>1998</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
+      <c r="A18" s="39">
         <v>1999</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="39" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
+      <c r="A19" s="39">
         <v>2000</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="39" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="48">
+      <c r="A20" s="39">
         <v>2001</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="39" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
+      <c r="A21" s="39">
         <v>2002</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="39" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="48">
+      <c r="A22" s="39">
         <v>2003</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="48">
+      <c r="A23" s="39">
         <v>2004</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="48">
+      <c r="A24" s="39">
         <v>2005</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="48">
+      <c r="A25" s="39">
         <v>2006</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="48">
+      <c r="A26" s="39">
         <v>2007</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="48">
+      <c r="A27" s="39">
         <v>2008</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="48">
+      <c r="A28" s="39">
         <v>2009</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="48">
+      <c r="A29" s="39">
         <v>2010</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="48">
+      <c r="A30" s="39">
         <v>2011</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="48">
+      <c r="A31" s="39">
         <v>2012</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="48">
+      <c r="A32" s="39">
         <v>2013</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="48">
+      <c r="A33" s="39">
         <v>2014</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="48">
+      <c r="A34" s="39">
         <v>2015</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="48">
+      <c r="A35" s="39">
         <v>2016</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="48">
+      <c r="A36" s="39">
         <v>2017</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="48">
+      <c r="A37" s="39">
         <v>2018</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="48">
+      <c r="A38" s="39">
         <v>2019</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="39" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="48">
+      <c r="A39" s="39">
         <v>2020</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="39" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="48">
+      <c r="A40" s="39">
         <v>2021</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="39" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="48">
+      <c r="A41" s="39">
         <v>2022</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="39" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="46">
+      <c r="A42" s="37">
         <v>2023</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="46">
+      <c r="A43" s="37">
         <v>2024</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="46">
+      <c r="A44" s="37">
         <v>2025</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="37" t="s">
         <v>34</v>
       </c>
     </row>
@@ -16845,8 +18997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28404103-2C4E-4706-9DD8-040020E89275}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="B2:G44"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16882,7 +19034,7 @@
       <c r="A2" s="8">
         <v>1986</v>
       </c>
-      <c r="B2" s="63">
+      <c r="B2" s="54">
         <v>0.1452</v>
       </c>
       <c r="C2" s="5">
@@ -16905,7 +19057,7 @@
       <c r="A3" s="8">
         <v>1987</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="54">
         <v>0.1386</v>
       </c>
       <c r="C3" s="5">
@@ -16928,7 +19080,7 @@
       <c r="A4" s="8">
         <v>1988</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="54">
         <v>0.29339999999999999</v>
       </c>
       <c r="C4" s="5">
@@ -16951,7 +19103,7 @@
       <c r="A5" s="8">
         <v>1989</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="54">
         <v>0.1789</v>
       </c>
       <c r="C5" s="5">
@@ -16974,7 +19126,7 @@
       <c r="A6" s="8">
         <v>1990</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="54">
         <v>0.16339999999999999</v>
       </c>
       <c r="C6" s="5">
@@ -16997,7 +19149,7 @@
       <c r="A7" s="8">
         <v>1991</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7" s="54">
         <v>9.4560000000000005E-2</v>
       </c>
       <c r="C7" s="5">
@@ -17020,7 +19172,7 @@
       <c r="A8" s="8">
         <v>1992</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="54">
         <v>8.7370000000000003E-2</v>
       </c>
       <c r="C8" s="5">
@@ -17043,7 +19195,7 @@
       <c r="A9" s="8">
         <v>1993</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9" s="54">
         <v>2.5270000000000001E-2</v>
       </c>
       <c r="C9" s="5">
@@ -17066,7 +19218,7 @@
       <c r="A10" s="8">
         <v>1994</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="54">
         <v>0.21759999999999999</v>
       </c>
       <c r="C10" s="5">
@@ -17089,7 +19241,7 @@
       <c r="A11" s="8">
         <v>1995</v>
       </c>
-      <c r="B11" s="63">
+      <c r="B11" s="54">
         <v>0.28839999999999999</v>
       </c>
       <c r="C11" s="5">
@@ -17112,7 +19264,7 @@
       <c r="A12" s="8">
         <v>1996</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12" s="54">
         <v>0.3261</v>
       </c>
       <c r="C12" s="5">
@@ -17135,7 +19287,7 @@
       <c r="A13" s="8">
         <v>1997</v>
       </c>
-      <c r="B13" s="63">
+      <c r="B13" s="54">
         <v>0.23710000000000001</v>
       </c>
       <c r="C13" s="5">
@@ -17158,7 +19310,7 @@
       <c r="A14" s="8">
         <v>1998</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="54">
         <v>0.2281</v>
       </c>
       <c r="C14" s="5">
@@ -17181,7 +19333,7 @@
       <c r="A15" s="8">
         <v>1999</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15" s="54">
         <v>0.2087</v>
       </c>
       <c r="C15" s="5">
@@ -17204,7 +19356,7 @@
       <c r="A16" s="8">
         <v>2000</v>
       </c>
-      <c r="B16" s="63">
+      <c r="B16" s="54">
         <v>0.15310000000000001</v>
       </c>
       <c r="C16" s="5">
@@ -17227,7 +19379,7 @@
       <c r="A17" s="8">
         <v>2001</v>
       </c>
-      <c r="B17" s="63">
+      <c r="B17" s="54">
         <v>8.1629999999999994E-2</v>
       </c>
       <c r="C17" s="5">
@@ -17250,7 +19402,7 @@
       <c r="A18" s="8">
         <v>2002</v>
       </c>
-      <c r="B18" s="63">
+      <c r="B18" s="54">
         <v>7.5380000000000003E-2</v>
       </c>
       <c r="C18" s="5">
@@ -17273,7 +19425,7 @@
       <c r="A19" s="8">
         <v>2003</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="54">
         <v>8.2049999999999998E-2</v>
       </c>
       <c r="C19" s="5">
@@ -17296,7 +19448,7 @@
       <c r="A20" s="8">
         <v>2004</v>
       </c>
-      <c r="B20" s="63">
+      <c r="B20" s="54">
         <v>0.1013</v>
       </c>
       <c r="C20" s="5">
@@ -17319,7 +19471,7 @@
       <c r="A21" s="8">
         <v>2005</v>
       </c>
-      <c r="B21" s="63">
+      <c r="B21" s="54">
         <v>0.14810000000000001</v>
       </c>
       <c r="C21" s="5">
@@ -17342,7 +19494,7 @@
       <c r="A22" s="8">
         <v>2006</v>
       </c>
-      <c r="B22" s="63">
+      <c r="B22" s="54">
         <v>0.1346</v>
       </c>
       <c r="C22" s="5">
@@ -17365,7 +19517,7 @@
       <c r="A23" s="8">
         <v>2007</v>
       </c>
-      <c r="B23" s="63">
+      <c r="B23" s="54">
         <v>0.1186</v>
       </c>
       <c r="C23" s="5">
@@ -17388,7 +19540,7 @@
       <c r="A24" s="8">
         <v>2008</v>
       </c>
-      <c r="B24" s="63">
+      <c r="B24" s="54">
         <v>0.1618</v>
       </c>
       <c r="C24" s="5">
@@ -17411,7 +19563,7 @@
       <c r="A25" s="8">
         <v>2009</v>
       </c>
-      <c r="B25" s="63">
+      <c r="B25" s="54">
         <v>0.1203</v>
       </c>
       <c r="C25" s="5">
@@ -17434,7 +19586,7 @@
       <c r="A26" s="8">
         <v>2010</v>
       </c>
-      <c r="B26" s="63">
+      <c r="B26" s="54">
         <v>0.1928</v>
       </c>
       <c r="C26" s="5">
@@ -17457,7 +19609,7 @@
       <c r="A27" s="8">
         <v>2011</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="54">
         <v>0.19670000000000001</v>
       </c>
       <c r="C27" s="5">
@@ -17480,7 +19632,7 @@
       <c r="A28" s="8">
         <v>2012</v>
       </c>
-      <c r="B28" s="63">
+      <c r="B28" s="54">
         <v>0.1719</v>
       </c>
       <c r="C28" s="5">
@@ -17503,7 +19655,7 @@
       <c r="A29" s="8">
         <v>2013</v>
       </c>
-      <c r="B29" s="63">
+      <c r="B29" s="54">
         <v>0.1278</v>
       </c>
       <c r="C29" s="5">
@@ -17526,7 +19678,7 @@
       <c r="A30" s="8">
         <v>2014</v>
       </c>
-      <c r="B30" s="63">
+      <c r="B30" s="54">
         <v>0.16689999999999999</v>
       </c>
       <c r="C30" s="5">
@@ -17549,7 +19701,7 @@
       <c r="A31" s="8">
         <v>2015</v>
       </c>
-      <c r="B31" s="63">
+      <c r="B31" s="54">
         <v>0.23860000000000001</v>
       </c>
       <c r="C31" s="5">
@@ -17572,7 +19724,7 @@
       <c r="A32" s="8">
         <v>2016</v>
       </c>
-      <c r="B32" s="63">
+      <c r="B32" s="54">
         <v>0.28089999999999998</v>
       </c>
       <c r="C32" s="5">
@@ -17595,7 +19747,7 @@
       <c r="A33" s="8">
         <v>2017</v>
       </c>
-      <c r="B33" s="63">
+      <c r="B33" s="54">
         <v>0.21479999999999999</v>
       </c>
       <c r="C33" s="5">
@@ -17618,7 +19770,7 @@
       <c r="A34" s="8">
         <v>2018</v>
       </c>
-      <c r="B34" s="63">
+      <c r="B34" s="54">
         <v>0.21029999999999999</v>
       </c>
       <c r="C34" s="5">
@@ -17641,7 +19793,7 @@
       <c r="A35" s="8">
         <v>2019</v>
       </c>
-      <c r="B35" s="63">
+      <c r="B35" s="54">
         <v>0.22370000000000001</v>
       </c>
       <c r="C35" s="5">
@@ -17664,7 +19816,7 @@
       <c r="A36" s="8">
         <v>2020</v>
       </c>
-      <c r="B36" s="63">
+      <c r="B36" s="54">
         <v>0.35730000000000001</v>
       </c>
       <c r="C36" s="5">
@@ -17687,7 +19839,7 @@
       <c r="A37" s="8">
         <v>2021</v>
       </c>
-      <c r="B37" s="63">
+      <c r="B37" s="54">
         <v>0.30099999999999999</v>
       </c>
       <c r="C37" s="5">
@@ -17710,7 +19862,7 @@
       <c r="A38" s="8">
         <v>2022</v>
       </c>
-      <c r="B38" s="63">
+      <c r="B38" s="54">
         <v>0.18010000000000001</v>
       </c>
       <c r="C38" s="5">
@@ -17733,7 +19885,7 @@
       <c r="A39" s="8">
         <v>2023</v>
       </c>
-      <c r="B39" s="63">
+      <c r="B39" s="54">
         <v>0.1799</v>
       </c>
       <c r="C39" s="5">
@@ -17756,7 +19908,7 @@
       <c r="A40" s="8">
         <v>2024</v>
       </c>
-      <c r="B40" s="63">
+      <c r="B40" s="54">
         <v>0.1807</v>
       </c>
       <c r="C40" s="5">
@@ -17779,7 +19931,7 @@
       <c r="A41" s="8">
         <v>2025</v>
       </c>
-      <c r="B41" s="63">
+      <c r="B41" s="54">
         <v>0.18129999999999999</v>
       </c>
       <c r="C41" s="5">
@@ -17802,7 +19954,7 @@
       <c r="A42" s="8">
         <v>2026</v>
       </c>
-      <c r="B42" s="63">
+      <c r="B42" s="54">
         <v>0.18010000000000001</v>
       </c>
       <c r="C42" s="5">
@@ -17825,7 +19977,7 @@
       <c r="A43" s="8">
         <v>2027</v>
       </c>
-      <c r="B43" s="63">
+      <c r="B43" s="54">
         <v>0.18010000000000001</v>
       </c>
       <c r="C43" s="5">
@@ -17848,7 +20000,7 @@
       <c r="A44" s="8">
         <v>2028</v>
       </c>
-      <c r="B44" s="63">
+      <c r="B44" s="54">
         <v>0.1802</v>
       </c>
       <c r="C44" s="5">
@@ -17870,6 +20022,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17877,7 +20030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC58D581-C0D1-4A1B-822C-BEAAC486313A}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17912,7 +20065,7 @@
       <c r="A2" s="8">
         <v>1987</v>
       </c>
-      <c r="B2" s="63">
+      <c r="B2" s="54">
         <v>0.52929999999999999</v>
       </c>
       <c r="C2" s="5">
@@ -17935,7 +20088,7 @@
       <c r="A3" s="8">
         <v>1988</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="54">
         <v>0.70679999999999998</v>
       </c>
       <c r="C3" s="5">
@@ -17958,7 +20111,7 @@
       <c r="A4" s="8">
         <v>1989</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="54">
         <v>0.85399999999999998</v>
       </c>
       <c r="C4" s="5">
@@ -17981,7 +20134,7 @@
       <c r="A5" s="8">
         <v>1990</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="54">
         <v>0.77890000000000004</v>
       </c>
       <c r="C5" s="5">
@@ -18004,7 +20157,7 @@
       <c r="A6" s="8">
         <v>1991</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="54">
         <v>0.54079999999999995</v>
       </c>
       <c r="C6" s="5">
@@ -18027,7 +20180,7 @@
       <c r="A7" s="8">
         <v>1992</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7" s="54">
         <v>0.81020000000000003</v>
       </c>
       <c r="C7" s="5">
@@ -18050,7 +20203,7 @@
       <c r="A8" s="8">
         <v>1993</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="54">
         <v>0.37780000000000002</v>
       </c>
       <c r="C8" s="5">
@@ -18073,7 +20226,7 @@
       <c r="A9" s="8">
         <v>1994</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9" s="54">
         <v>0.70199999999999996</v>
       </c>
       <c r="C9" s="5">
@@ -18096,7 +20249,7 @@
       <c r="A10" s="8">
         <v>1995</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="54">
         <v>0.68320000000000003</v>
       </c>
       <c r="C10" s="5">
@@ -18119,7 +20272,7 @@
       <c r="A11" s="8">
         <v>1996</v>
       </c>
-      <c r="B11" s="63">
+      <c r="B11" s="54">
         <v>0.81499999999999995</v>
       </c>
       <c r="C11" s="5">
@@ -18142,7 +20295,7 @@
       <c r="A12" s="8">
         <v>1997</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12" s="54">
         <v>0.70069999999999999</v>
       </c>
       <c r="C12" s="5">
@@ -18165,7 +20318,7 @@
       <c r="A13" s="8">
         <v>1998</v>
       </c>
-      <c r="B13" s="63">
+      <c r="B13" s="54">
         <v>0.66320000000000001</v>
       </c>
       <c r="C13" s="5">
@@ -18188,7 +20341,7 @@
       <c r="A14" s="8">
         <v>1999</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="54">
         <v>0.81469999999999998</v>
       </c>
       <c r="C14" s="5">
@@ -18211,7 +20364,7 @@
       <c r="A15" s="8">
         <v>2000</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15" s="54">
         <v>0.68810000000000004</v>
       </c>
       <c r="C15" s="5">
@@ -18234,7 +20387,7 @@
       <c r="A16" s="8">
         <v>2001</v>
       </c>
-      <c r="B16" s="63">
+      <c r="B16" s="54">
         <v>0.64400000000000002</v>
       </c>
       <c r="C16" s="5">
@@ -18257,7 +20410,7 @@
       <c r="A17" s="8">
         <v>2002</v>
       </c>
-      <c r="B17" s="63">
+      <c r="B17" s="54">
         <v>0.58130000000000004</v>
       </c>
       <c r="C17" s="5">
@@ -18280,7 +20433,7 @@
       <c r="A18" s="8">
         <v>2003</v>
       </c>
-      <c r="B18" s="63">
+      <c r="B18" s="54">
         <v>0.59</v>
       </c>
       <c r="C18" s="5">
@@ -18303,7 +20456,7 @@
       <c r="A19" s="8">
         <v>2004</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="54">
         <v>0.66610000000000003</v>
       </c>
       <c r="C19" s="5">
@@ -18326,7 +20479,7 @@
       <c r="A20" s="8">
         <v>2005</v>
       </c>
-      <c r="B20" s="63">
+      <c r="B20" s="54">
         <v>0.68820000000000003</v>
       </c>
       <c r="C20" s="5">
@@ -18349,7 +20502,7 @@
       <c r="A21" s="8">
         <v>2006</v>
       </c>
-      <c r="B21" s="63">
+      <c r="B21" s="54">
         <v>0.68600000000000005</v>
       </c>
       <c r="C21" s="5">
@@ -18372,7 +20525,7 @@
       <c r="A22" s="8">
         <v>2007</v>
       </c>
-      <c r="B22" s="63">
+      <c r="B22" s="54">
         <v>0.70369999999999999</v>
       </c>
       <c r="C22" s="5">
@@ -18395,7 +20548,7 @@
       <c r="A23" s="8">
         <v>2008</v>
       </c>
-      <c r="B23" s="63">
+      <c r="B23" s="54">
         <v>0.79910000000000003</v>
       </c>
       <c r="C23" s="5">
@@ -18418,7 +20571,7 @@
       <c r="A24" s="8">
         <v>2009</v>
       </c>
-      <c r="B24" s="63">
+      <c r="B24" s="54">
         <v>0.68700000000000006</v>
       </c>
       <c r="C24" s="5">
@@ -18441,7 +20594,7 @@
       <c r="A25" s="8">
         <v>2010</v>
       </c>
-      <c r="B25" s="63">
+      <c r="B25" s="54">
         <v>0.65910000000000002</v>
       </c>
       <c r="C25" s="5">
@@ -18464,7 +20617,7 @@
       <c r="A26" s="8">
         <v>2011</v>
       </c>
-      <c r="B26" s="63">
+      <c r="B26" s="54">
         <v>0.74860000000000004</v>
       </c>
       <c r="C26" s="5">
@@ -18487,7 +20640,7 @@
       <c r="A27" s="8">
         <v>2012</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="54">
         <v>0.73350000000000004</v>
       </c>
       <c r="C27" s="5">
@@ -18510,7 +20663,7 @@
       <c r="A28" s="8">
         <v>2013</v>
       </c>
-      <c r="B28" s="63">
+      <c r="B28" s="54">
         <v>0.68989999999999996</v>
       </c>
       <c r="C28" s="5">
@@ -18533,7 +20686,7 @@
       <c r="A29" s="8">
         <v>2014</v>
       </c>
-      <c r="B29" s="63">
+      <c r="B29" s="54">
         <v>0.69579999999999997</v>
       </c>
       <c r="C29" s="5">
@@ -18556,7 +20709,7 @@
       <c r="A30" s="8">
         <v>2015</v>
       </c>
-      <c r="B30" s="63">
+      <c r="B30" s="54">
         <v>0.73080000000000001</v>
       </c>
       <c r="C30" s="5">
@@ -18579,7 +20732,7 @@
       <c r="A31" s="8">
         <v>2016</v>
       </c>
-      <c r="B31" s="63">
+      <c r="B31" s="54">
         <v>0.82709999999999995</v>
       </c>
       <c r="C31" s="5">
@@ -18602,7 +20755,7 @@
       <c r="A32" s="8">
         <v>2017</v>
       </c>
-      <c r="B32" s="63">
+      <c r="B32" s="54">
         <v>0.84360000000000002</v>
       </c>
       <c r="C32" s="5">
@@ -18625,7 +20778,7 @@
       <c r="A33" s="8">
         <v>2018</v>
       </c>
-      <c r="B33" s="63">
+      <c r="B33" s="54">
         <v>0.84060000000000001</v>
       </c>
       <c r="C33" s="5">
@@ -18648,7 +20801,7 @@
       <c r="A34" s="8">
         <v>2019</v>
       </c>
-      <c r="B34" s="63">
+      <c r="B34" s="54">
         <v>0.79790000000000005</v>
       </c>
       <c r="C34" s="5">
@@ -18671,7 +20824,7 @@
       <c r="A35" s="8">
         <v>2020</v>
       </c>
-      <c r="B35" s="63">
+      <c r="B35" s="54">
         <v>0.71540000000000004</v>
       </c>
       <c r="C35" s="5">
@@ -18694,7 +20847,7 @@
       <c r="A36" s="8">
         <v>2021</v>
       </c>
-      <c r="B36" s="63">
+      <c r="B36" s="54">
         <v>0.80449999999999999</v>
       </c>
       <c r="C36" s="5">
@@ -18717,7 +20870,7 @@
       <c r="A37" s="8">
         <v>2022</v>
       </c>
-      <c r="B37" s="63">
+      <c r="B37" s="54">
         <v>0.70589999999999997</v>
       </c>
       <c r="C37" s="5">
@@ -18740,7 +20893,7 @@
       <c r="A38" s="8">
         <v>2023</v>
       </c>
-      <c r="B38" s="63">
+      <c r="B38" s="54">
         <v>0.70340000000000003</v>
       </c>
       <c r="C38" s="5">
@@ -18763,7 +20916,7 @@
       <c r="A39" s="8">
         <v>2024</v>
       </c>
-      <c r="B39" s="63">
+      <c r="B39" s="54">
         <v>0.70409999999999995</v>
       </c>
       <c r="C39" s="5">
@@ -18786,7 +20939,7 @@
       <c r="A40" s="8">
         <v>2025</v>
       </c>
-      <c r="B40" s="63">
+      <c r="B40" s="54">
         <v>0.7036</v>
       </c>
       <c r="C40" s="5">
@@ -18809,7 +20962,7 @@
       <c r="A41" s="8">
         <v>2026</v>
       </c>
-      <c r="B41" s="63">
+      <c r="B41" s="54">
         <v>0.7036</v>
       </c>
       <c r="C41" s="5">
@@ -18832,7 +20985,7 @@
       <c r="A42" s="8">
         <v>2027</v>
       </c>
-      <c r="B42" s="63">
+      <c r="B42" s="54">
         <v>0.70479999999999998</v>
       </c>
       <c r="C42" s="5">
@@ -18855,7 +21008,7 @@
       <c r="A43" s="8">
         <v>2028</v>
       </c>
-      <c r="B43" s="63">
+      <c r="B43" s="54">
         <v>0.7046</v>
       </c>
       <c r="C43" s="5">
@@ -18878,7 +21031,7 @@
       <c r="A44" s="8">
         <v>2029</v>
       </c>
-      <c r="B44" s="63">
+      <c r="B44" s="54">
         <v>0.70289999999999997</v>
       </c>
       <c r="C44" s="5">
@@ -18900,6 +21053,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18944,22 +21098,22 @@
       <c r="A2" s="8">
         <v>1983</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="55">
         <v>114</v>
       </c>
-      <c r="C2" s="65">
+      <c r="C2" s="56">
         <v>98.3</v>
       </c>
-      <c r="D2" s="65">
+      <c r="D2" s="56">
         <v>34.270000000000003</v>
       </c>
-      <c r="E2" s="65">
+      <c r="E2" s="56">
         <v>68.569999999999993</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="56">
         <v>143.5</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="56">
         <v>280.8</v>
       </c>
     </row>
@@ -18967,22 +21121,22 @@
       <c r="A3" s="8">
         <v>1984</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="55">
         <v>176.7</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="56">
         <v>164.5</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="56">
         <v>80.010000000000005</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="56">
         <v>126.7</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="56">
         <v>211.8</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="56">
         <v>347.1</v>
       </c>
     </row>
@@ -18990,22 +21144,22 @@
       <c r="A4" s="8">
         <v>1985</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="55">
         <v>112.9</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="56">
         <v>107.1</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="56">
         <v>59.78</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="56">
         <v>87.83</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="56">
         <v>131.69999999999999</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="56">
         <v>194.6</v>
       </c>
     </row>
@@ -19013,22 +21167,22 @@
       <c r="A5" s="8">
         <v>1986</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="55">
         <v>54.31</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="56">
         <v>52.78</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="56">
         <v>31.72</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="56">
         <v>44.38</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="56">
         <v>62.18</v>
       </c>
-      <c r="G5" s="65">
+      <c r="G5" s="56">
         <v>86.43</v>
       </c>
     </row>
@@ -19036,22 +21190,22 @@
       <c r="A6" s="8">
         <v>1987</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="55">
         <v>32.979999999999997</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="56">
         <v>32.03</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="56">
         <v>19.98</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="56">
         <v>27.36</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="56">
         <v>37.86</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="56">
         <v>50.95</v>
       </c>
     </row>
@@ -19059,22 +21213,22 @@
       <c r="A7" s="8">
         <v>1988</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="55">
         <v>26.38</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="56">
         <v>25.58</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="56">
         <v>15.73</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="56">
         <v>21.59</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="56">
         <v>30.32</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="56">
         <v>41.22</v>
       </c>
     </row>
@@ -19082,22 +21236,22 @@
       <c r="A8" s="8">
         <v>1989</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="55">
         <v>30.79</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="56">
         <v>30.04</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="56">
         <v>18.93</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="56">
         <v>25.81</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="56">
         <v>34.840000000000003</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="56">
         <v>47.59</v>
       </c>
     </row>
@@ -19105,22 +21259,22 @@
       <c r="A9" s="8">
         <v>1990</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="55">
         <v>48.76</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="56">
         <v>47.17</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="56">
         <v>30.15</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="56">
         <v>40.65</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="56">
         <v>55.44</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="56">
         <v>75.349999999999994</v>
       </c>
     </row>
@@ -19128,22 +21282,22 @@
       <c r="A10" s="8">
         <v>1991</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="55">
         <v>134.30000000000001</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="56">
         <v>130.80000000000001</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="56">
         <v>83.49</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="56">
         <v>111.3</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F10" s="56">
         <v>152.9</v>
       </c>
-      <c r="G10" s="65">
+      <c r="G10" s="56">
         <v>206.1</v>
       </c>
     </row>
@@ -19151,22 +21305,22 @@
       <c r="A11" s="9">
         <v>1992</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11" s="55">
         <v>193.3</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="56">
         <v>187.4</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="56">
         <v>117.8</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="56">
         <v>160.80000000000001</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="56">
         <v>220.9</v>
       </c>
-      <c r="G11" s="65">
+      <c r="G11" s="56">
         <v>299.2</v>
       </c>
     </row>
@@ -19174,22 +21328,22 @@
       <c r="A12" s="9">
         <v>1993</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="55">
         <v>217.9</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="56">
         <v>212.4</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="56">
         <v>139.19999999999999</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="56">
         <v>184.1</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="56">
         <v>246.7</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="56">
         <v>326.8</v>
       </c>
     </row>
@@ -19197,22 +21351,22 @@
       <c r="A13" s="9">
         <v>1994</v>
       </c>
-      <c r="B13" s="64">
+      <c r="B13" s="55">
         <v>285.10000000000002</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="56">
         <v>278.89999999999998</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="56">
         <v>183.5</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="56">
         <v>239.9</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="56">
         <v>321.8</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="56">
         <v>424.3</v>
       </c>
     </row>
@@ -19220,22 +21374,22 @@
       <c r="A14" s="9">
         <v>1995</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="55">
         <v>215</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="56">
         <v>210.6</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="56">
         <v>137.19999999999999</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="56">
         <v>181.4</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="56">
         <v>242.6</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="56">
         <v>320</v>
       </c>
     </row>
@@ -19243,22 +21397,22 @@
       <c r="A15" s="9">
         <v>1996</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="55">
         <v>77.72</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="56">
         <v>76.28</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="56">
         <v>50.55</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="56">
         <v>65.680000000000007</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="56">
         <v>87.7</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="56">
         <v>113.9</v>
       </c>
     </row>
@@ -19266,22 +21420,22 @@
       <c r="A16" s="9">
         <v>1997</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B16" s="55">
         <v>59.16</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="56">
         <v>57.63</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="56">
         <v>39</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="56">
         <v>50.42</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="56">
         <v>66.739999999999995</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="56">
         <v>86.69</v>
       </c>
     </row>
@@ -19289,22 +21443,22 @@
       <c r="A17" s="9">
         <v>1998</v>
       </c>
-      <c r="B17" s="64">
+      <c r="B17" s="55">
         <v>59.56</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="56">
         <v>58.22</v>
       </c>
-      <c r="D17" s="65">
+      <c r="D17" s="56">
         <v>38.380000000000003</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="56">
         <v>50.61</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="56">
         <v>67.12</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="56">
         <v>88.21</v>
       </c>
     </row>
@@ -19312,22 +21466,22 @@
       <c r="A18" s="9">
         <v>1999</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18" s="55">
         <v>53.99</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="56">
         <v>52.77</v>
       </c>
-      <c r="D18" s="65">
+      <c r="D18" s="56">
         <v>34.35</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="56">
         <v>45.81</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="56">
         <v>60.74</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="56">
         <v>81.790000000000006</v>
       </c>
     </row>
@@ -19335,22 +21489,22 @@
       <c r="A19" s="9">
         <v>2000</v>
       </c>
-      <c r="B19" s="64">
+      <c r="B19" s="55">
         <v>64.260000000000005</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="56">
         <v>62.83</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="56">
         <v>41.88</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="56">
         <v>54.61</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="56">
         <v>72.63</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="56">
         <v>95.54</v>
       </c>
     </row>
@@ -19358,22 +21512,22 @@
       <c r="A20" s="9">
         <v>2001</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="55">
         <v>78.849999999999994</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="56">
         <v>76.98</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="56">
         <v>51.52</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="56">
         <v>66.84</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="56">
         <v>88.68</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="56">
         <v>116.5</v>
       </c>
     </row>
@@ -19381,22 +21535,22 @@
       <c r="A21" s="9">
         <v>2002</v>
       </c>
-      <c r="B21" s="64">
+      <c r="B21" s="55">
         <v>93.27</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="56">
         <v>91.31</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="56">
         <v>60.6</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="56">
         <v>79.47</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="56">
         <v>104.7</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="56">
         <v>137.19999999999999</v>
       </c>
     </row>
@@ -19404,22 +21558,22 @@
       <c r="A22" s="9">
         <v>2003</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="55">
         <v>111.1</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="56">
         <v>108.5</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="56">
         <v>73.2</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="56">
         <v>94.41</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="56">
         <v>124.2</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="56">
         <v>165.6</v>
       </c>
     </row>
@@ -19427,22 +21581,22 @@
       <c r="A23" s="9">
         <v>2004</v>
       </c>
-      <c r="B23" s="64">
+      <c r="B23" s="55">
         <v>101.5</v>
       </c>
-      <c r="C23" s="65">
+      <c r="C23" s="56">
         <v>99.11</v>
       </c>
-      <c r="D23" s="65">
+      <c r="D23" s="56">
         <v>65.64</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="56">
         <v>86.09</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="56">
         <v>114.6</v>
       </c>
-      <c r="G23" s="65">
+      <c r="G23" s="56">
         <v>149.30000000000001</v>
       </c>
     </row>
@@ -19450,22 +21604,22 @@
       <c r="A24" s="9">
         <v>2005</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24" s="55">
         <v>80.77</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="56">
         <v>79.209999999999994</v>
       </c>
-      <c r="D24" s="65">
+      <c r="D24" s="56">
         <v>52.86</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="56">
         <v>68.819999999999993</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="56">
         <v>90.63</v>
       </c>
-      <c r="G24" s="65">
+      <c r="G24" s="56">
         <v>119.5</v>
       </c>
     </row>
@@ -19473,22 +21627,22 @@
       <c r="A25" s="9">
         <v>2006</v>
       </c>
-      <c r="B25" s="64">
+      <c r="B25" s="55">
         <v>87.38</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="56">
         <v>85.14</v>
       </c>
-      <c r="D25" s="65">
+      <c r="D25" s="56">
         <v>56.2</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="56">
         <v>73.989999999999995</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="56">
         <v>98.5</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="56">
         <v>130.5</v>
       </c>
     </row>
@@ -19496,22 +21650,22 @@
       <c r="A26" s="9">
         <v>2007</v>
       </c>
-      <c r="B26" s="64">
+      <c r="B26" s="55">
         <v>139.80000000000001</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="56">
         <v>136.6</v>
       </c>
-      <c r="D26" s="65">
+      <c r="D26" s="56">
         <v>91.51</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="56">
         <v>118.3</v>
       </c>
-      <c r="F26" s="65">
+      <c r="F26" s="56">
         <v>157.69999999999999</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="56">
         <v>208</v>
       </c>
     </row>
@@ -19519,22 +21673,22 @@
       <c r="A27" s="9">
         <v>2008</v>
       </c>
-      <c r="B27" s="64">
+      <c r="B27" s="55">
         <v>129.19999999999999</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="56">
         <v>127.4</v>
       </c>
-      <c r="D27" s="65">
+      <c r="D27" s="56">
         <v>84.14</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="56">
         <v>110.2</v>
       </c>
-      <c r="F27" s="65">
+      <c r="F27" s="56">
         <v>144.9</v>
       </c>
-      <c r="G27" s="65">
+      <c r="G27" s="56">
         <v>189.2</v>
       </c>
     </row>
@@ -19542,22 +21696,22 @@
       <c r="A28" s="9">
         <v>2009</v>
       </c>
-      <c r="B28" s="64">
+      <c r="B28" s="55">
         <v>93.27</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="56">
         <v>91.17</v>
       </c>
-      <c r="D28" s="65">
+      <c r="D28" s="56">
         <v>60.92</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="56">
         <v>79.77</v>
       </c>
-      <c r="F28" s="65">
+      <c r="F28" s="56">
         <v>104.6</v>
       </c>
-      <c r="G28" s="65">
+      <c r="G28" s="56">
         <v>137.19999999999999</v>
       </c>
     </row>
@@ -19565,22 +21719,22 @@
       <c r="A29" s="9">
         <v>2010</v>
       </c>
-      <c r="B29" s="64">
+      <c r="B29" s="55">
         <v>84.49</v>
       </c>
-      <c r="C29" s="65">
+      <c r="C29" s="56">
         <v>82.76</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="56">
         <v>54.68</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="56">
         <v>71.86</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="56">
         <v>95.22</v>
       </c>
-      <c r="G29" s="65">
+      <c r="G29" s="56">
         <v>124.9</v>
       </c>
     </row>
@@ -19588,22 +21742,22 @@
       <c r="A30" s="9">
         <v>2011</v>
       </c>
-      <c r="B30" s="64">
+      <c r="B30" s="55">
         <v>112.5</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="56">
         <v>110.5</v>
       </c>
-      <c r="D30" s="65">
+      <c r="D30" s="56">
         <v>72.010000000000005</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="56">
         <v>95.54</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="56">
         <v>126.5</v>
       </c>
-      <c r="G30" s="65">
+      <c r="G30" s="56">
         <v>166.7</v>
       </c>
     </row>
@@ -19611,22 +21765,22 @@
       <c r="A31" s="9">
         <v>2012</v>
       </c>
-      <c r="B31" s="64">
+      <c r="B31" s="55">
         <v>142.69999999999999</v>
       </c>
-      <c r="C31" s="65">
+      <c r="C31" s="56">
         <v>140</v>
       </c>
-      <c r="D31" s="65">
+      <c r="D31" s="56">
         <v>89.45</v>
       </c>
-      <c r="E31" s="65">
+      <c r="E31" s="56">
         <v>120.5</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="56">
         <v>161.69999999999999</v>
       </c>
-      <c r="G31" s="65">
+      <c r="G31" s="56">
         <v>213</v>
       </c>
     </row>
@@ -19634,22 +21788,22 @@
       <c r="A32" s="9">
         <v>2013</v>
       </c>
-      <c r="B32" s="64">
+      <c r="B32" s="55">
         <v>147.4</v>
       </c>
-      <c r="C32" s="65">
+      <c r="C32" s="56">
         <v>145</v>
       </c>
-      <c r="D32" s="65">
+      <c r="D32" s="56">
         <v>94.6</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="56">
         <v>124.2</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="56">
         <v>166.3</v>
       </c>
-      <c r="G32" s="65">
+      <c r="G32" s="56">
         <v>217.4</v>
       </c>
     </row>
@@ -19657,22 +21811,22 @@
       <c r="A33" s="9">
         <v>2014</v>
       </c>
-      <c r="B33" s="64">
+      <c r="B33" s="55">
         <v>145.80000000000001</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="56">
         <v>142.19999999999999</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="56">
         <v>91.98</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="56">
         <v>123.1</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="56">
         <v>164.2</v>
       </c>
-      <c r="G33" s="65">
+      <c r="G33" s="56">
         <v>217.8</v>
       </c>
     </row>
@@ -19680,22 +21834,22 @@
       <c r="A34" s="9">
         <v>2015</v>
       </c>
-      <c r="B34" s="64">
+      <c r="B34" s="55">
         <v>135.19999999999999</v>
       </c>
-      <c r="C34" s="65">
+      <c r="C34" s="56">
         <v>131.69999999999999</v>
       </c>
-      <c r="D34" s="65">
+      <c r="D34" s="56">
         <v>84.9</v>
       </c>
-      <c r="E34" s="65">
+      <c r="E34" s="56">
         <v>113.6</v>
       </c>
-      <c r="F34" s="65">
+      <c r="F34" s="56">
         <v>153.19999999999999</v>
       </c>
-      <c r="G34" s="65">
+      <c r="G34" s="56">
         <v>203.3</v>
       </c>
     </row>
@@ -19703,22 +21857,22 @@
       <c r="A35" s="9">
         <v>2016</v>
       </c>
-      <c r="B35" s="64">
+      <c r="B35" s="55">
         <v>139.5</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="56">
         <v>135.80000000000001</v>
       </c>
-      <c r="D35" s="65">
+      <c r="D35" s="56">
         <v>88.7</v>
       </c>
-      <c r="E35" s="65">
+      <c r="E35" s="56">
         <v>117.4</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="56">
         <v>157.69999999999999</v>
       </c>
-      <c r="G35" s="65">
+      <c r="G35" s="56">
         <v>211</v>
       </c>
     </row>
@@ -19726,22 +21880,22 @@
       <c r="A36" s="9">
         <v>2017</v>
       </c>
-      <c r="B36" s="64">
+      <c r="B36" s="55">
         <v>237.5</v>
       </c>
-      <c r="C36" s="65">
+      <c r="C36" s="56">
         <v>230.7</v>
       </c>
-      <c r="D36" s="65">
+      <c r="D36" s="56">
         <v>141.4</v>
       </c>
-      <c r="E36" s="65">
+      <c r="E36" s="56">
         <v>196.1</v>
       </c>
-      <c r="F36" s="65">
+      <c r="F36" s="56">
         <v>272</v>
       </c>
-      <c r="G36" s="65">
+      <c r="G36" s="56">
         <v>375.1</v>
       </c>
     </row>
@@ -19749,22 +21903,22 @@
       <c r="A37" s="9">
         <v>2018</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37" s="55">
         <v>264.5</v>
       </c>
-      <c r="C37" s="65">
+      <c r="C37" s="56">
         <v>256.39999999999998</v>
       </c>
-      <c r="D37" s="65">
+      <c r="D37" s="56">
         <v>147</v>
       </c>
-      <c r="E37" s="65">
+      <c r="E37" s="56">
         <v>211.3</v>
       </c>
-      <c r="F37" s="65">
+      <c r="F37" s="56">
         <v>305.3</v>
       </c>
-      <c r="G37" s="65">
+      <c r="G37" s="56">
         <v>438.9</v>
       </c>
     </row>
@@ -19772,22 +21926,22 @@
       <c r="A38" s="9">
         <v>2019</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="55">
         <v>184.9</v>
       </c>
-      <c r="C38" s="65">
+      <c r="C38" s="56">
         <v>175.6</v>
       </c>
-      <c r="D38" s="65">
+      <c r="D38" s="56">
         <v>95.2</v>
       </c>
-      <c r="E38" s="65">
+      <c r="E38" s="56">
         <v>143.4</v>
       </c>
-      <c r="F38" s="65">
+      <c r="F38" s="56">
         <v>217</v>
       </c>
-      <c r="G38" s="65">
+      <c r="G38" s="56">
         <v>328.4</v>
       </c>
     </row>
@@ -19795,22 +21949,22 @@
       <c r="A39" s="9">
         <v>2020</v>
       </c>
-      <c r="B39" s="64">
+      <c r="B39" s="55">
         <v>123</v>
       </c>
-      <c r="C39" s="65">
+      <c r="C39" s="56">
         <v>116</v>
       </c>
-      <c r="D39" s="65">
+      <c r="D39" s="56">
         <v>59.1</v>
       </c>
-      <c r="E39" s="65">
+      <c r="E39" s="56">
         <v>92.35</v>
       </c>
-      <c r="F39" s="65">
+      <c r="F39" s="56">
         <v>147.30000000000001</v>
       </c>
-      <c r="G39" s="65">
+      <c r="G39" s="56">
         <v>226.2</v>
       </c>
     </row>
@@ -19818,22 +21972,22 @@
       <c r="A40" s="9">
         <v>2021</v>
       </c>
-      <c r="B40" s="64">
+      <c r="B40" s="55">
         <v>108.5</v>
       </c>
-      <c r="C40" s="65">
+      <c r="C40" s="56">
         <v>101.1</v>
       </c>
-      <c r="D40" s="65">
+      <c r="D40" s="56">
         <v>46.95</v>
       </c>
-      <c r="E40" s="65">
+      <c r="E40" s="56">
         <v>77.63</v>
       </c>
-      <c r="F40" s="65">
+      <c r="F40" s="56">
         <v>130.5</v>
       </c>
-      <c r="G40" s="65">
+      <c r="G40" s="56">
         <v>220.5</v>
       </c>
     </row>
@@ -19841,22 +21995,22 @@
       <c r="A41" s="9">
         <v>2022</v>
       </c>
-      <c r="B41" s="64">
+      <c r="B41" s="55">
         <v>117.8</v>
       </c>
-      <c r="C41" s="65">
+      <c r="C41" s="56">
         <v>105.9</v>
       </c>
-      <c r="D41" s="65">
+      <c r="D41" s="56">
         <v>43.29</v>
       </c>
-      <c r="E41" s="65">
+      <c r="E41" s="56">
         <v>77.680000000000007</v>
       </c>
-      <c r="F41" s="65">
+      <c r="F41" s="56">
         <v>143.5</v>
       </c>
-      <c r="G41" s="65">
+      <c r="G41" s="56">
         <v>263.89999999999998</v>
       </c>
     </row>
@@ -19864,22 +22018,22 @@
       <c r="A42" s="9">
         <v>2023</v>
       </c>
-      <c r="B42" s="64">
+      <c r="B42" s="55">
         <v>123.4</v>
       </c>
-      <c r="C42" s="65">
+      <c r="C42" s="56">
         <v>104.6</v>
       </c>
-      <c r="D42" s="65">
+      <c r="D42" s="56">
         <v>33.89</v>
       </c>
-      <c r="E42" s="65">
+      <c r="E42" s="56">
         <v>71.760000000000005</v>
       </c>
-      <c r="F42" s="65">
+      <c r="F42" s="56">
         <v>152.19999999999999</v>
       </c>
-      <c r="G42" s="65">
+      <c r="G42" s="56">
         <v>322.5</v>
       </c>
     </row>
@@ -19887,22 +22041,22 @@
       <c r="A43" s="9">
         <v>2024</v>
       </c>
-      <c r="B43" s="64">
+      <c r="B43" s="55">
         <v>127.1</v>
       </c>
-      <c r="C43" s="65">
+      <c r="C43" s="56">
         <v>104.1</v>
       </c>
-      <c r="D43" s="65">
+      <c r="D43" s="56">
         <v>30.02</v>
       </c>
-      <c r="E43" s="65">
+      <c r="E43" s="56">
         <v>68.58</v>
       </c>
-      <c r="F43" s="65">
+      <c r="F43" s="56">
         <v>157</v>
       </c>
-      <c r="G43" s="65">
+      <c r="G43" s="56">
         <v>362.4</v>
       </c>
     </row>
@@ -19910,22 +22064,22 @@
       <c r="A44" s="9">
         <v>2025</v>
       </c>
-      <c r="B44" s="64">
+      <c r="B44" s="55">
         <v>129.1</v>
       </c>
-      <c r="C44" s="65">
+      <c r="C44" s="56">
         <v>101.9</v>
       </c>
-      <c r="D44" s="65">
+      <c r="D44" s="56">
         <v>27.86</v>
       </c>
-      <c r="E44" s="65">
+      <c r="E44" s="56">
         <v>66.739999999999995</v>
       </c>
-      <c r="F44" s="65">
+      <c r="F44" s="56">
         <v>157.9</v>
       </c>
-      <c r="G44" s="65">
+      <c r="G44" s="56">
         <v>394.7</v>
       </c>
     </row>

--- a/instar/Instar abundances females 1990-2022.xlsx
+++ b/instar/Instar abundances females 1990-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuretteTJ\Desktop\gulf-population-modelling\instar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A020CE-599F-4458-B037-C55ADF31D4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510B6A1D-97C7-4ED0-858A-14B5652A51C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="210" windowWidth="28125" windowHeight="14355" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="210" windowWidth="28125" windowHeight="14355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mu" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="vessel" sheetId="15" r:id="rId5"/>
     <sheet name="raw" sheetId="1" r:id="rId6"/>
     <sheet name="molting prob Instar VII to VIII" sheetId="16" r:id="rId7"/>
-    <sheet name="molting prob Instar VII to IX" sheetId="17" r:id="rId8"/>
+    <sheet name="molting prob Instar VIII to IX" sheetId="17" r:id="rId8"/>
     <sheet name="cohort strength" sheetId="18" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1675,7 +1675,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'molting prob Instar VII to IX'!$A$6:$A$37</c:f>
+              <c:f>'molting prob Instar VIII to IX'!$A$6:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1780,7 +1780,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'molting prob Instar VII to IX'!$B$6:$B$37</c:f>
+              <c:f>'molting prob Instar VIII to IX'!$B$6:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3584,7 +3584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -7747,7 +7747,7 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20030,7 +20030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC58D581-C0D1-4A1B-822C-BEAAC486313A}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
